--- a/迷彩进度.xlsx
+++ b/迷彩进度.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Cod20多人迷彩" sheetId="1" r:id="rId1"/>
@@ -3034,7 +3034,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="27">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3191,6 +3191,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -3219,7 +3225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3256,9 +3262,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3475,6 +3478,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3759,8 +3774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4:N9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3780,7 +3795,7 @@
     <col min="15" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="69.75">
+    <row r="1" spans="1:15" ht="51">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3827,7 +3842,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="38.25">
+    <row r="2" spans="1:15" ht="25.5">
       <c r="A2" s="8" t="s">
         <v>12</v>
       </c>
@@ -3861,18 +3876,18 @@
       <c r="K2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="N2" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="15"/>
-    </row>
-    <row r="3" spans="1:15" ht="51">
+      <c r="O2" s="14"/>
+    </row>
+    <row r="3" spans="1:15" ht="25.5">
       <c r="A3" s="8" t="s">
         <v>12</v>
       </c>
@@ -3906,14 +3921,14 @@
       <c r="K3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="L3" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="M3" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="14"/>
-      <c r="O3" s="15"/>
+      <c r="N3" s="86"/>
+      <c r="O3" s="14"/>
     </row>
     <row r="4" spans="1:15" ht="50.25" customHeight="1">
       <c r="A4" s="8" t="s">
@@ -3949,14 +3964,14 @@
       <c r="K4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="16" t="s">
+      <c r="L4" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="17" t="s">
+      <c r="M4" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="14"/>
-      <c r="O4" s="15"/>
+      <c r="N4" s="86"/>
+      <c r="O4" s="14"/>
     </row>
     <row r="5" spans="1:15" ht="25.5">
       <c r="A5" s="8" t="s">
@@ -3995,11 +4010,11 @@
       <c r="L5" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="M5" s="17" t="s">
+      <c r="M5" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="N5" s="14"/>
-      <c r="O5" s="15"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="14"/>
     </row>
     <row r="6" spans="1:15" ht="25.5">
       <c r="A6" s="8" t="s">
@@ -4035,14 +4050,14 @@
       <c r="K6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="18" t="s">
+      <c r="L6" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="M6" s="19" t="s">
+      <c r="M6" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="N6" s="14"/>
-      <c r="O6" s="15"/>
+      <c r="N6" s="86"/>
+      <c r="O6" s="14"/>
     </row>
     <row r="7" spans="1:15" ht="25.5">
       <c r="A7" s="8" t="s">
@@ -4075,17 +4090,17 @@
       <c r="J7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="20" t="s">
+      <c r="K7" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="L7" s="18" t="s">
+      <c r="L7" s="17" t="s">
         <v>36</v>
       </c>
       <c r="M7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="14"/>
-      <c r="O7" s="15"/>
+      <c r="N7" s="86"/>
+      <c r="O7" s="14"/>
     </row>
     <row r="8" spans="1:15" ht="25.5">
       <c r="A8" s="10" t="s">
@@ -4121,14 +4136,14 @@
       <c r="K8" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="L8" s="16" t="s">
+      <c r="L8" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="M8" s="13" t="s">
+      <c r="M8" s="88" t="s">
         <v>40</v>
       </c>
-      <c r="N8" s="14"/>
-      <c r="O8" s="15"/>
+      <c r="N8" s="86"/>
+      <c r="O8" s="14"/>
     </row>
     <row r="9" spans="1:15" ht="25.5">
       <c r="A9" s="10" t="s">
@@ -4161,47 +4176,47 @@
       <c r="J9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="20" t="s">
+      <c r="K9" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="L9" s="12" t="s">
+      <c r="L9" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="M9" s="19" t="s">
+      <c r="M9" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="N9" s="14"/>
-      <c r="O9" s="15"/>
-    </row>
-    <row r="10" spans="1:15" ht="38.25">
-      <c r="A10" s="21" t="s">
+      <c r="N9" s="86"/>
+      <c r="O9" s="14"/>
+    </row>
+    <row r="10" spans="1:15" ht="25.5">
+      <c r="A10" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="23">
-        <v>2</v>
-      </c>
-      <c r="D10" s="23" t="s">
+      <c r="C10" s="22">
+        <v>2</v>
+      </c>
+      <c r="D10" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="22">
         <v>12</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="22">
         <v>19</v>
       </c>
-      <c r="H10" s="24" t="s">
+      <c r="H10" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="22">
         <v>29</v>
       </c>
-      <c r="J10" s="23" t="s">
+      <c r="J10" s="22" t="s">
         <v>16</v>
       </c>
       <c r="K10" s="11" t="s">
@@ -4210,105 +4225,105 @@
       <c r="L10" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="M10" s="13" t="s">
+      <c r="M10" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="N10" s="14" t="s">
+      <c r="N10" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="O10" s="15"/>
-    </row>
-    <row r="11" spans="1:15" ht="38.25">
-      <c r="A11" s="21" t="s">
+      <c r="O10" s="14"/>
+    </row>
+    <row r="11" spans="1:15" ht="25.5">
+      <c r="A11" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="23">
-        <v>2</v>
-      </c>
-      <c r="D11" s="23" t="s">
+      <c r="C11" s="22">
+        <v>2</v>
+      </c>
+      <c r="D11" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="22">
         <v>12</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="22">
         <v>19</v>
       </c>
-      <c r="H11" s="24" t="s">
+      <c r="H11" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="22">
         <v>28</v>
       </c>
-      <c r="J11" s="23" t="s">
+      <c r="J11" s="22" t="s">
         <v>16</v>
       </c>
       <c r="K11" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="L11" s="18" t="s">
+      <c r="L11" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="M11" s="17" t="s">
+      <c r="M11" s="89" t="s">
         <v>54</v>
       </c>
-      <c r="N11" s="14"/>
-      <c r="O11" s="15"/>
-    </row>
-    <row r="12" spans="1:15" ht="51">
-      <c r="A12" s="21" t="s">
+      <c r="N11" s="86"/>
+      <c r="O11" s="14"/>
+    </row>
+    <row r="12" spans="1:15" ht="25.5">
+      <c r="A12" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="23">
-        <v>2</v>
-      </c>
-      <c r="D12" s="23" t="s">
+      <c r="C12" s="22">
+        <v>2</v>
+      </c>
+      <c r="D12" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="22">
         <v>10</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="22">
         <v>15</v>
       </c>
-      <c r="H12" s="24" t="s">
+      <c r="H12" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="22">
         <v>23</v>
       </c>
-      <c r="J12" s="23" t="s">
+      <c r="J12" s="22" t="s">
         <v>16</v>
       </c>
       <c r="K12" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="L12" s="18" t="s">
+      <c r="L12" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="M12" s="13" t="s">
+      <c r="M12" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="N12" s="14"/>
-      <c r="O12" s="15"/>
-    </row>
-    <row r="13" spans="1:15" ht="51">
+      <c r="N12" s="86"/>
+      <c r="O12" s="14"/>
+    </row>
+    <row r="13" spans="1:15" ht="38.25">
       <c r="A13" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="24" t="s">
         <v>59</v>
       </c>
       <c r="C13" s="10">
@@ -4332,28 +4347,28 @@
       <c r="I13" s="10">
         <v>23</v>
       </c>
-      <c r="J13" s="26" t="s">
+      <c r="J13" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="K13" s="20" t="s">
+      <c r="K13" s="19" t="s">
         <v>63</v>
       </c>
       <c r="L13" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="M13" s="19" t="s">
+      <c r="M13" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="N13" s="14" t="s">
+      <c r="N13" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="O13" s="15"/>
-    </row>
-    <row r="14" spans="1:15" ht="51">
+      <c r="O13" s="14"/>
+    </row>
+    <row r="14" spans="1:15" ht="38.25">
       <c r="A14" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="24" t="s">
         <v>64</v>
       </c>
       <c r="C14" s="10">
@@ -4377,26 +4392,26 @@
       <c r="I14" s="10">
         <v>27</v>
       </c>
-      <c r="J14" s="26" t="s">
+      <c r="J14" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="K14" s="20" t="s">
+      <c r="K14" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="L14" s="16" t="s">
+      <c r="L14" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="M14" s="17" t="s">
+      <c r="M14" s="89" t="s">
         <v>66</v>
       </c>
-      <c r="N14" s="14"/>
-      <c r="O14" s="15"/>
-    </row>
-    <row r="15" spans="1:15" ht="51">
+      <c r="N14" s="86"/>
+      <c r="O14" s="14"/>
+    </row>
+    <row r="15" spans="1:15" ht="38.25">
       <c r="A15" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="24" t="s">
         <v>67</v>
       </c>
       <c r="C15" s="10">
@@ -4420,26 +4435,26 @@
       <c r="I15" s="10">
         <v>29</v>
       </c>
-      <c r="J15" s="26" t="s">
+      <c r="J15" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="K15" s="20" t="s">
+      <c r="K15" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="L15" s="18" t="s">
+      <c r="L15" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="M15" s="17" t="s">
+      <c r="M15" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="N15" s="14"/>
-      <c r="O15" s="15"/>
-    </row>
-    <row r="16" spans="1:15" ht="51">
+      <c r="N15" s="86"/>
+      <c r="O15" s="14"/>
+    </row>
+    <row r="16" spans="1:15" ht="38.25">
       <c r="A16" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="24" t="s">
         <v>70</v>
       </c>
       <c r="C16" s="10">
@@ -4463,26 +4478,26 @@
       <c r="I16" s="10">
         <v>28</v>
       </c>
-      <c r="J16" s="26" t="s">
+      <c r="J16" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="K16" s="20" t="s">
+      <c r="K16" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="L16" s="16" t="s">
+      <c r="L16" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="M16" s="13" t="s">
+      <c r="M16" s="88" t="s">
         <v>71</v>
       </c>
-      <c r="N16" s="14"/>
-      <c r="O16" s="15"/>
-    </row>
-    <row r="17" spans="1:15" ht="51">
+      <c r="N16" s="86"/>
+      <c r="O16" s="14"/>
+    </row>
+    <row r="17" spans="1:15" ht="38.25">
       <c r="A17" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="24" t="s">
         <v>72</v>
       </c>
       <c r="C17" s="10">
@@ -4506,26 +4521,26 @@
       <c r="I17" s="10">
         <v>20</v>
       </c>
-      <c r="J17" s="26" t="s">
+      <c r="J17" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="K17" s="20" t="s">
+      <c r="K17" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="L17" s="18" t="s">
+      <c r="L17" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="M17" s="19" t="s">
+      <c r="M17" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="N17" s="14"/>
-      <c r="O17" s="15"/>
-    </row>
-    <row r="18" spans="1:15" ht="51">
+      <c r="N17" s="86"/>
+      <c r="O17" s="14"/>
+    </row>
+    <row r="18" spans="1:15" ht="38.25">
       <c r="A18" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="24" t="s">
         <v>74</v>
       </c>
       <c r="C18" s="10">
@@ -4549,26 +4564,26 @@
       <c r="I18" s="10">
         <v>25</v>
       </c>
-      <c r="J18" s="26" t="s">
+      <c r="J18" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="K18" s="20" t="s">
+      <c r="K18" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="L18" s="18" t="s">
+      <c r="L18" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="M18" s="17" t="s">
+      <c r="M18" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="N18" s="14"/>
-      <c r="O18" s="15"/>
-    </row>
-    <row r="19" spans="1:15" ht="51">
+      <c r="N18" s="86"/>
+      <c r="O18" s="14"/>
+    </row>
+    <row r="19" spans="1:15" ht="38.25">
       <c r="A19" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="24" t="s">
         <v>77</v>
       </c>
       <c r="C19" s="10">
@@ -4592,26 +4607,26 @@
       <c r="I19" s="10">
         <v>18</v>
       </c>
-      <c r="J19" s="27" t="s">
+      <c r="J19" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="K19" s="20" t="s">
+      <c r="K19" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="L19" s="16" t="s">
+      <c r="L19" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="M19" s="17" t="s">
+      <c r="M19" s="89" t="s">
         <v>80</v>
       </c>
-      <c r="N19" s="14"/>
-      <c r="O19" s="15"/>
-    </row>
-    <row r="20" spans="1:15" ht="51">
+      <c r="N19" s="86"/>
+      <c r="O19" s="14"/>
+    </row>
+    <row r="20" spans="1:15" ht="38.25">
       <c r="A20" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="24" t="s">
         <v>81</v>
       </c>
       <c r="C20" s="10">
@@ -4635,153 +4650,153 @@
       <c r="I20" s="10">
         <v>24</v>
       </c>
-      <c r="J20" s="27" t="s">
+      <c r="J20" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="K20" s="20" t="s">
+      <c r="K20" s="19" t="s">
         <v>82</v>
       </c>
       <c r="L20" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="M20" s="17" t="s">
+      <c r="M20" s="89" t="s">
         <v>84</v>
       </c>
-      <c r="N20" s="14"/>
-      <c r="O20" s="15"/>
-    </row>
-    <row r="21" spans="1:15" ht="38.25">
-      <c r="A21" s="21" t="s">
+      <c r="N20" s="86"/>
+      <c r="O20" s="14"/>
+    </row>
+    <row r="21" spans="1:15" ht="25.5">
+      <c r="A21" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="23">
-        <v>2</v>
-      </c>
-      <c r="D21" s="23" t="s">
+      <c r="C21" s="22">
+        <v>2</v>
+      </c>
+      <c r="D21" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="22">
         <v>11</v>
       </c>
-      <c r="F21" s="23" t="s">
+      <c r="F21" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="G21" s="23">
+      <c r="G21" s="22">
         <v>18</v>
       </c>
-      <c r="H21" s="23" t="s">
+      <c r="H21" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="I21" s="23">
+      <c r="I21" s="22">
         <v>27</v>
       </c>
-      <c r="J21" s="23" t="s">
+      <c r="J21" s="22" t="s">
         <v>89</v>
       </c>
       <c r="K21" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="L21" s="16" t="s">
+      <c r="L21" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="M21" s="17" t="s">
+      <c r="M21" s="89" t="s">
         <v>92</v>
       </c>
-      <c r="N21" s="14" t="s">
+      <c r="N21" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="O21" s="15"/>
-    </row>
-    <row r="22" spans="1:15" ht="38.25">
-      <c r="A22" s="21" t="s">
+      <c r="O21" s="14"/>
+    </row>
+    <row r="22" spans="1:15" ht="25.5">
+      <c r="A22" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="23">
-        <v>2</v>
-      </c>
-      <c r="D22" s="23" t="s">
+      <c r="C22" s="22">
+        <v>2</v>
+      </c>
+      <c r="D22" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="22">
         <v>9</v>
       </c>
-      <c r="F22" s="23" t="s">
+      <c r="F22" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="G22" s="23">
+      <c r="G22" s="22">
         <v>15</v>
       </c>
-      <c r="H22" s="23" t="s">
+      <c r="H22" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="I22" s="23">
+      <c r="I22" s="22">
         <v>22</v>
       </c>
-      <c r="J22" s="23" t="s">
+      <c r="J22" s="22" t="s">
         <v>89</v>
       </c>
       <c r="K22" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="L22" s="16" t="s">
+      <c r="L22" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="M22" s="17" t="s">
+      <c r="M22" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="N22" s="14"/>
-      <c r="O22" s="15"/>
-    </row>
-    <row r="23" spans="1:15" ht="38.25">
-      <c r="A23" s="21" t="s">
+      <c r="N22" s="86"/>
+      <c r="O22" s="14"/>
+    </row>
+    <row r="23" spans="1:15" ht="25.5">
+      <c r="A23" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="C23" s="23">
-        <v>2</v>
-      </c>
-      <c r="D23" s="23" t="s">
+      <c r="C23" s="22">
+        <v>2</v>
+      </c>
+      <c r="D23" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="22">
         <v>10</v>
       </c>
-      <c r="F23" s="23" t="s">
+      <c r="F23" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="G23" s="23">
+      <c r="G23" s="22">
         <v>16</v>
       </c>
-      <c r="H23" s="23" t="s">
+      <c r="H23" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="I23" s="23">
+      <c r="I23" s="22">
         <v>24</v>
       </c>
-      <c r="J23" s="23" t="s">
+      <c r="J23" s="22" t="s">
         <v>89</v>
       </c>
       <c r="K23" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="L23" s="18" t="s">
+      <c r="L23" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="M23" s="17" t="s">
+      <c r="M23" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="N23" s="14"/>
-      <c r="O23" s="15"/>
-    </row>
-    <row r="24" spans="1:15" ht="51">
+      <c r="N23" s="86"/>
+      <c r="O23" s="14"/>
+    </row>
+    <row r="24" spans="1:15" ht="25.5">
       <c r="A24" s="8" t="s">
         <v>97</v>
       </c>
@@ -4815,18 +4830,18 @@
       <c r="K24" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="L24" s="16" t="s">
+      <c r="L24" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="M24" s="19" t="s">
+      <c r="M24" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="N24" s="14" t="s">
+      <c r="N24" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="O24" s="15"/>
-    </row>
-    <row r="25" spans="1:15" ht="51">
+      <c r="O24" s="14"/>
+    </row>
+    <row r="25" spans="1:15" ht="25.5">
       <c r="A25" s="8" t="s">
         <v>97</v>
       </c>
@@ -4860,16 +4875,16 @@
       <c r="K25" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="L25" s="16" t="s">
+      <c r="L25" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="M25" s="17" t="s">
+      <c r="M25" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="N25" s="14"/>
-      <c r="O25" s="15"/>
-    </row>
-    <row r="26" spans="1:15" ht="51">
+      <c r="N25" s="86"/>
+      <c r="O25" s="14"/>
+    </row>
+    <row r="26" spans="1:15" ht="25.5">
       <c r="A26" s="8" t="s">
         <v>97</v>
       </c>
@@ -4903,16 +4918,16 @@
       <c r="K26" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="L26" s="16" t="s">
+      <c r="L26" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="M26" s="17" t="s">
+      <c r="M26" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="N26" s="14"/>
-      <c r="O26" s="15"/>
-    </row>
-    <row r="27" spans="1:15" ht="51">
+      <c r="N26" s="86"/>
+      <c r="O26" s="14"/>
+    </row>
+    <row r="27" spans="1:15" ht="25.5">
       <c r="A27" s="8" t="s">
         <v>97</v>
       </c>
@@ -4946,20 +4961,20 @@
       <c r="K27" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="L27" s="16" t="s">
+      <c r="L27" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="M27" s="17" t="s">
+      <c r="M27" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="N27" s="14"/>
-      <c r="O27" s="15"/>
-    </row>
-    <row r="28" spans="1:15" ht="51">
+      <c r="N27" s="86"/>
+      <c r="O27" s="14"/>
+    </row>
+    <row r="28" spans="1:15" ht="25.5">
       <c r="A28" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="28" t="s">
         <v>115</v>
       </c>
       <c r="C28" s="10">
@@ -4989,16 +5004,16 @@
       <c r="K28" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="L28" s="18" t="s">
+      <c r="L28" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="M28" s="17" t="s">
+      <c r="M28" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="N28" s="14"/>
-      <c r="O28" s="15"/>
-    </row>
-    <row r="29" spans="1:15" ht="51">
+      <c r="N28" s="86"/>
+      <c r="O28" s="14"/>
+    </row>
+    <row r="29" spans="1:15" ht="25.5">
       <c r="A29" s="10" t="s">
         <v>97</v>
       </c>
@@ -5032,47 +5047,47 @@
       <c r="K29" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="L29" s="18" t="s">
+      <c r="L29" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="M29" s="17" t="s">
+      <c r="M29" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="N29" s="14"/>
-      <c r="O29" s="15"/>
-    </row>
-    <row r="30" spans="1:15" ht="38.25">
-      <c r="A30" s="21" t="s">
+      <c r="N29" s="86"/>
+      <c r="O29" s="14"/>
+    </row>
+    <row r="30" spans="1:15" ht="25.5">
+      <c r="A30" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="C30" s="23">
-        <v>2</v>
-      </c>
-      <c r="D30" s="23" t="s">
+      <c r="C30" s="22">
+        <v>2</v>
+      </c>
+      <c r="D30" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="23">
+      <c r="E30" s="22">
         <v>13</v>
       </c>
-      <c r="F30" s="23" t="s">
+      <c r="F30" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="G30" s="23">
+      <c r="G30" s="22">
         <v>20</v>
       </c>
-      <c r="H30" s="23" t="s">
+      <c r="H30" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="I30" s="23">
+      <c r="I30" s="22">
         <v>30</v>
       </c>
-      <c r="J30" s="23" t="s">
+      <c r="J30" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="K30" s="20" t="s">
+      <c r="K30" s="19" t="s">
         <v>124</v>
       </c>
       <c r="L30" s="12" t="s">
@@ -5081,145 +5096,145 @@
       <c r="M30" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="N30" s="14" t="s">
+      <c r="N30" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="O30" s="15"/>
-    </row>
-    <row r="31" spans="1:15" ht="38.25">
-      <c r="A31" s="21" t="s">
+      <c r="O30" s="14"/>
+    </row>
+    <row r="31" spans="1:15" ht="25.5">
+      <c r="A31" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="C31" s="23">
-        <v>2</v>
-      </c>
-      <c r="D31" s="23" t="s">
+      <c r="C31" s="22">
+        <v>2</v>
+      </c>
+      <c r="D31" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E31" s="23">
+      <c r="E31" s="22">
         <v>10</v>
       </c>
-      <c r="F31" s="23" t="s">
+      <c r="F31" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="G31" s="23">
+      <c r="G31" s="22">
         <v>16</v>
       </c>
-      <c r="H31" s="23" t="s">
+      <c r="H31" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="I31" s="23">
+      <c r="I31" s="22">
         <v>24</v>
       </c>
-      <c r="J31" s="23" t="s">
+      <c r="J31" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="K31" s="20" t="s">
+      <c r="K31" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="L31" s="18" t="s">
+      <c r="L31" s="17" t="s">
         <v>127</v>
       </c>
       <c r="M31" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="N31" s="14"/>
-      <c r="O31" s="15"/>
-    </row>
-    <row r="32" spans="1:15" ht="25.5">
-      <c r="A32" s="21" t="s">
+      <c r="N31" s="86"/>
+      <c r="O31" s="14"/>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="B32" s="30" t="s">
+      <c r="B32" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="C32" s="23">
-        <v>2</v>
-      </c>
-      <c r="D32" s="23" t="s">
+      <c r="C32" s="22">
+        <v>2</v>
+      </c>
+      <c r="D32" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="23">
+      <c r="E32" s="22">
         <v>10</v>
       </c>
-      <c r="F32" s="23" t="s">
+      <c r="F32" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="G32" s="23">
+      <c r="G32" s="22">
         <v>15</v>
       </c>
-      <c r="H32" s="23" t="s">
+      <c r="H32" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="I32" s="23">
+      <c r="I32" s="22">
         <v>23</v>
       </c>
-      <c r="J32" s="23" t="s">
+      <c r="J32" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="K32" s="20" t="s">
+      <c r="K32" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="L32" s="18" t="s">
+      <c r="L32" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="M32" s="17" t="s">
+      <c r="M32" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="N32" s="14"/>
-      <c r="O32" s="15"/>
-    </row>
-    <row r="33" spans="1:15" ht="25.5">
-      <c r="A33" s="21" t="s">
+      <c r="N32" s="86"/>
+      <c r="O32" s="14"/>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="C33" s="23">
-        <v>2</v>
-      </c>
-      <c r="D33" s="23" t="s">
+      <c r="C33" s="22">
+        <v>2</v>
+      </c>
+      <c r="D33" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E33" s="23">
+      <c r="E33" s="22">
         <v>8</v>
       </c>
-      <c r="F33" s="23" t="s">
+      <c r="F33" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="G33" s="23">
+      <c r="G33" s="22">
         <v>12</v>
       </c>
-      <c r="H33" s="23" t="s">
+      <c r="H33" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="I33" s="23">
+      <c r="I33" s="22">
         <v>18</v>
       </c>
-      <c r="J33" s="23" t="s">
+      <c r="J33" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="K33" s="20" t="s">
+      <c r="K33" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="L33" s="18" t="s">
+      <c r="L33" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="M33" s="17" t="s">
+      <c r="M33" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="N33" s="14"/>
-      <c r="O33" s="15"/>
-    </row>
-    <row r="34" spans="1:15" ht="38.25">
+      <c r="N33" s="86"/>
+      <c r="O33" s="14"/>
+    </row>
+    <row r="34" spans="1:15" ht="25.5">
       <c r="A34" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="30" t="s">
         <v>133</v>
       </c>
       <c r="C34" s="10">
@@ -5246,25 +5261,25 @@
       <c r="J34" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="K34" s="32" t="s">
+      <c r="K34" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="L34" s="18" t="s">
+      <c r="L34" s="17" t="s">
         <v>137</v>
       </c>
       <c r="M34" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="N34" s="14" t="s">
+      <c r="N34" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="O34" s="15"/>
-    </row>
-    <row r="35" spans="1:15" ht="38.25">
+      <c r="O34" s="14"/>
+    </row>
+    <row r="35" spans="1:15" ht="25.5">
       <c r="A35" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="B35" s="31" t="s">
+      <c r="B35" s="30" t="s">
         <v>139</v>
       </c>
       <c r="C35" s="10">
@@ -5291,23 +5306,23 @@
       <c r="J35" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="K35" s="32" t="s">
+      <c r="K35" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="L35" s="16" t="s">
+      <c r="L35" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="M35" s="17" t="s">
+      <c r="M35" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="N35" s="14"/>
-      <c r="O35" s="15"/>
+      <c r="N35" s="86"/>
+      <c r="O35" s="14"/>
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="B36" s="31" t="s">
+      <c r="B36" s="30" t="s">
         <v>142</v>
       </c>
       <c r="C36" s="10">
@@ -5334,23 +5349,23 @@
       <c r="J36" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="K36" s="32" t="s">
+      <c r="K36" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="L36" s="18" t="s">
+      <c r="L36" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="M36" s="17" t="s">
+      <c r="M36" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="N36" s="14"/>
-      <c r="O36" s="15"/>
+      <c r="N36" s="86"/>
+      <c r="O36" s="14"/>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B37" s="31" t="s">
+      <c r="B37" s="30" t="s">
         <v>145</v>
       </c>
       <c r="C37" s="10">
@@ -5377,197 +5392,197 @@
       <c r="J37" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="K37" s="32" t="s">
+      <c r="K37" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="L37" s="18" t="s">
+      <c r="L37" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="M37" s="17" t="s">
+      <c r="M37" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="N37" s="14"/>
-      <c r="O37" s="15"/>
-    </row>
-    <row r="38" spans="1:15" ht="25.5">
-      <c r="A38" s="21" t="s">
+      <c r="N37" s="86"/>
+      <c r="O37" s="14"/>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="B38" s="33" t="s">
+      <c r="B38" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="C38" s="23">
-        <v>2</v>
-      </c>
-      <c r="D38" s="23" t="s">
+      <c r="C38" s="22">
+        <v>2</v>
+      </c>
+      <c r="D38" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E38" s="23">
+      <c r="E38" s="22">
         <v>9</v>
       </c>
-      <c r="F38" s="23" t="s">
+      <c r="F38" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G38" s="23">
+      <c r="G38" s="22">
         <v>14</v>
       </c>
-      <c r="H38" s="23" t="s">
+      <c r="H38" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="I38" s="23">
+      <c r="I38" s="22">
         <v>21</v>
       </c>
-      <c r="J38" s="23" t="s">
+      <c r="J38" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="K38" s="20" t="s">
+      <c r="K38" s="19" t="s">
         <v>63</v>
       </c>
       <c r="L38" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="M38" s="19" t="s">
+      <c r="M38" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="N38" s="14" t="s">
+      <c r="N38" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="O38" s="15"/>
-    </row>
-    <row r="39" spans="1:15" ht="25.5">
-      <c r="A39" s="21" t="s">
+      <c r="O38" s="14"/>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="B39" s="33" t="s">
+      <c r="B39" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="C39" s="23">
-        <v>2</v>
-      </c>
-      <c r="D39" s="23" t="s">
+      <c r="C39" s="22">
+        <v>2</v>
+      </c>
+      <c r="D39" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E39" s="23">
+      <c r="E39" s="22">
         <v>9</v>
       </c>
-      <c r="F39" s="23" t="s">
+      <c r="F39" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G39" s="23">
+      <c r="G39" s="22">
         <v>14</v>
       </c>
-      <c r="H39" s="23" t="s">
+      <c r="H39" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="I39" s="23">
+      <c r="I39" s="22">
         <v>21</v>
       </c>
-      <c r="J39" s="23" t="s">
+      <c r="J39" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="K39" s="20" t="s">
+      <c r="K39" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="L39" s="18" t="s">
+      <c r="L39" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="M39" s="17" t="s">
+      <c r="M39" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="N39" s="14"/>
-      <c r="O39" s="15"/>
-    </row>
-    <row r="40" spans="1:15" ht="38.25">
-      <c r="A40" s="21" t="s">
+      <c r="N39" s="86"/>
+      <c r="O39" s="14"/>
+    </row>
+    <row r="40" spans="1:15" ht="25.5">
+      <c r="A40" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="B40" s="33" t="s">
+      <c r="B40" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="C40" s="23">
-        <v>2</v>
-      </c>
-      <c r="D40" s="23" t="s">
+      <c r="C40" s="22">
+        <v>2</v>
+      </c>
+      <c r="D40" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E40" s="23">
+      <c r="E40" s="22">
         <v>11</v>
       </c>
-      <c r="F40" s="23" t="s">
+      <c r="F40" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G40" s="23">
+      <c r="G40" s="22">
         <v>17</v>
       </c>
-      <c r="H40" s="23" t="s">
+      <c r="H40" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="I40" s="23">
+      <c r="I40" s="22">
         <v>26</v>
       </c>
-      <c r="J40" s="23" t="s">
+      <c r="J40" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="K40" s="20" t="s">
+      <c r="K40" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="L40" s="18" t="s">
+      <c r="L40" s="17" t="s">
         <v>53</v>
       </c>
       <c r="M40" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="N40" s="14"/>
-      <c r="O40" s="15"/>
-    </row>
-    <row r="41" spans="1:15" ht="63.75">
-      <c r="A41" s="21" t="s">
+      <c r="N40" s="86"/>
+      <c r="O40" s="14"/>
+    </row>
+    <row r="41" spans="1:15" ht="25.5">
+      <c r="A41" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="B41" s="33" t="s">
+      <c r="B41" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C41" s="23">
-        <v>2</v>
-      </c>
-      <c r="D41" s="23" t="s">
+      <c r="C41" s="22">
+        <v>2</v>
+      </c>
+      <c r="D41" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E41" s="23">
+      <c r="E41" s="22">
         <v>7</v>
       </c>
-      <c r="F41" s="23" t="s">
+      <c r="F41" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="23">
+      <c r="G41" s="22">
         <v>10</v>
       </c>
-      <c r="H41" s="23" t="s">
+      <c r="H41" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="I41" s="23">
+      <c r="I41" s="22">
         <v>15</v>
       </c>
-      <c r="J41" s="23" t="s">
+      <c r="J41" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="K41" s="20" t="s">
+      <c r="K41" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="L41" s="16" t="s">
+      <c r="L41" s="15" t="s">
         <v>156</v>
       </c>
       <c r="M41" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="N41" s="14"/>
-      <c r="O41" s="15"/>
+      <c r="N41" s="86"/>
+      <c r="O41" s="14"/>
     </row>
     <row r="42" spans="1:15" ht="18.75" customHeight="1">
       <c r="A42" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="B42" s="34" t="s">
+      <c r="B42" s="33" t="s">
         <v>159</v>
       </c>
       <c r="C42" s="10">
@@ -5576,43 +5591,43 @@
       <c r="D42" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="E42" s="35" t="s">
+      <c r="E42" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="F42" s="35" t="s">
+      <c r="F42" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="G42" s="35" t="s">
+      <c r="G42" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="H42" s="35" t="s">
+      <c r="H42" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="I42" s="35" t="s">
+      <c r="I42" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="J42" s="35" t="s">
+      <c r="J42" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="K42" s="32" t="s">
+      <c r="K42" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="L42" s="18" t="s">
+      <c r="L42" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="M42" s="17" t="s">
+      <c r="M42" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="N42" s="14" t="s">
+      <c r="N42" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="O42" s="15"/>
-    </row>
-    <row r="43" spans="1:15" ht="51">
+      <c r="O42" s="14"/>
+    </row>
+    <row r="43" spans="1:15" ht="25.5">
       <c r="A43" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="B43" s="34" t="s">
+      <c r="B43" s="33" t="s">
         <v>165</v>
       </c>
       <c r="C43" s="10">
@@ -5621,137 +5636,137 @@
       <c r="D43" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="E43" s="35" t="s">
+      <c r="E43" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="F43" s="35" t="s">
+      <c r="F43" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="G43" s="35" t="s">
+      <c r="G43" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="H43" s="35" t="s">
+      <c r="H43" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="I43" s="35" t="s">
+      <c r="I43" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="J43" s="35" t="s">
+      <c r="J43" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="K43" s="32" t="s">
+      <c r="K43" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="L43" s="16" t="s">
+      <c r="L43" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="M43" s="17" t="s">
+      <c r="M43" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="N43" s="14"/>
-      <c r="O43" s="15"/>
-    </row>
-    <row r="44" spans="1:15" ht="51">
-      <c r="A44" s="21" t="s">
+      <c r="N43" s="86"/>
+      <c r="O43" s="14"/>
+    </row>
+    <row r="44" spans="1:15" ht="25.5">
+      <c r="A44" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="B44" s="36" t="s">
+      <c r="B44" s="35" t="s">
         <v>170</v>
       </c>
-      <c r="C44" s="23">
+      <c r="C44" s="22">
         <v>4</v>
       </c>
-      <c r="D44" s="23" t="s">
+      <c r="D44" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E44" s="37" t="s">
+      <c r="E44" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="F44" s="37" t="s">
+      <c r="F44" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="G44" s="37" t="s">
+      <c r="G44" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="H44" s="37" t="s">
+      <c r="H44" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="I44" s="37" t="s">
+      <c r="I44" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="J44" s="37" t="s">
+      <c r="J44" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="K44" s="20" t="s">
+      <c r="K44" s="19" t="s">
         <v>171</v>
       </c>
       <c r="L44" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="M44" s="19" t="s">
+      <c r="M44" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="N44" s="14" t="s">
+      <c r="N44" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="O44" s="15"/>
-    </row>
-    <row r="45" spans="1:15" ht="51">
-      <c r="A45" s="21" t="s">
+      <c r="O44" s="14"/>
+    </row>
+    <row r="45" spans="1:15" ht="25.5">
+      <c r="A45" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="B45" s="36" t="s">
+      <c r="B45" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="C45" s="23">
+      <c r="C45" s="22">
         <v>4</v>
       </c>
-      <c r="D45" s="23" t="s">
+      <c r="D45" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E45" s="37" t="s">
+      <c r="E45" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="F45" s="37" t="s">
+      <c r="F45" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="G45" s="37" t="s">
+      <c r="G45" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="H45" s="37" t="s">
+      <c r="H45" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="I45" s="37" t="s">
+      <c r="I45" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="J45" s="37" t="s">
+      <c r="J45" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="K45" s="20" t="s">
+      <c r="K45" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="L45" s="18" t="s">
+      <c r="L45" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="M45" s="19" t="s">
+      <c r="M45" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="N45" s="14"/>
-      <c r="O45" s="15"/>
+      <c r="N45" s="86"/>
+      <c r="O45" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="N24:N29"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="N4:N9"/>
+    <mergeCell ref="N10:N12"/>
+    <mergeCell ref="N13:N20"/>
+    <mergeCell ref="N21:N23"/>
     <mergeCell ref="N30:N33"/>
     <mergeCell ref="N34:N37"/>
     <mergeCell ref="N38:N41"/>
     <mergeCell ref="N42:N43"/>
     <mergeCell ref="N44:N45"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="N4:N9"/>
-    <mergeCell ref="N10:N12"/>
-    <mergeCell ref="N13:N20"/>
-    <mergeCell ref="N21:N23"/>
-    <mergeCell ref="N24:N29"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5825,14 +5840,14 @@
       <c r="N1" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="O1" s="38" t="s">
+      <c r="O1" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="P1" s="23" t="s">
+      <c r="P1" s="22" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="51">
+    <row r="2" spans="1:16" ht="38.25">
       <c r="A2" s="8" t="s">
         <v>12</v>
       </c>
@@ -5848,41 +5863,41 @@
       <c r="E2" s="10">
         <v>13</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="25" t="s">
         <v>183</v>
       </c>
       <c r="G2" s="10">
         <v>20</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="25" t="s">
         <v>184</v>
       </c>
       <c r="I2" s="10">
         <v>30</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="L2" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M2" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="N2" s="14" t="s">
+      <c r="L2" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="N2" s="86" t="s">
         <v>189</v>
       </c>
-      <c r="O2" s="40" t="s">
+      <c r="O2" s="39" t="s">
         <v>190</v>
       </c>
-      <c r="P2" s="40">
+      <c r="P2" s="39">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="51">
+    <row r="3" spans="1:16" ht="38.25">
       <c r="A3" s="8" t="s">
         <v>12</v>
       </c>
@@ -5898,35 +5913,35 @@
       <c r="E3" s="10">
         <v>11</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="26" t="s">
         <v>191</v>
       </c>
       <c r="G3" s="10">
         <v>17</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="25" t="s">
         <v>185</v>
       </c>
       <c r="I3" s="10">
         <v>26</v>
       </c>
-      <c r="J3" s="27" t="s">
+      <c r="J3" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="K3" s="39" t="s">
+      <c r="K3" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="L3" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M3" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="N3" s="14"/>
-      <c r="O3" s="41" t="s">
+      <c r="L3" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="N3" s="86"/>
+      <c r="O3" s="40" t="s">
         <v>193</v>
       </c>
-      <c r="P3" s="41">
+      <c r="P3" s="40">
         <v>5</v>
       </c>
     </row>
@@ -5946,35 +5961,35 @@
       <c r="E4" s="10">
         <v>10</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="26" t="s">
         <v>194</v>
       </c>
       <c r="G4" s="10">
         <v>16</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="H4" s="26" t="s">
         <v>195</v>
       </c>
       <c r="I4" s="10">
         <v>24</v>
       </c>
-      <c r="J4" s="27" t="s">
+      <c r="J4" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="K4" s="39" t="s">
+      <c r="K4" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="L4" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M4" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="N4" s="14"/>
-      <c r="O4" s="42" t="s">
+      <c r="L4" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M4" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="N4" s="86"/>
+      <c r="O4" s="41" t="s">
         <v>197</v>
       </c>
-      <c r="P4" s="42">
+      <c r="P4" s="41">
         <v>4</v>
       </c>
     </row>
@@ -5994,35 +6009,35 @@
       <c r="E5" s="10">
         <v>12</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="26" t="s">
         <v>194</v>
       </c>
       <c r="G5" s="10">
         <v>19</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="H5" s="26" t="s">
         <v>198</v>
       </c>
       <c r="I5" s="10">
         <v>28</v>
       </c>
-      <c r="J5" s="43" t="s">
+      <c r="J5" s="42" t="s">
         <v>199</v>
       </c>
-      <c r="K5" s="39" t="s">
+      <c r="K5" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="L5" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M5" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="N5" s="14"/>
-      <c r="O5" s="44" t="s">
+      <c r="L5" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M5" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="N5" s="86"/>
+      <c r="O5" s="43" t="s">
         <v>200</v>
       </c>
-      <c r="P5" s="44">
+      <c r="P5" s="43">
         <v>4</v>
       </c>
     </row>
@@ -6042,35 +6057,35 @@
       <c r="E6" s="10">
         <v>11</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="26" t="s">
         <v>194</v>
       </c>
       <c r="G6" s="10">
         <v>17</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="25" t="s">
         <v>201</v>
       </c>
       <c r="I6" s="10">
         <v>25</v>
       </c>
-      <c r="J6" s="27" t="s">
+      <c r="J6" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="K6" s="39" t="s">
+      <c r="K6" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="L6" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M6" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="N6" s="14"/>
-      <c r="O6" s="45" t="s">
+      <c r="L6" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M6" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="N6" s="86"/>
+      <c r="O6" s="44" t="s">
         <v>202</v>
       </c>
-      <c r="P6" s="45">
+      <c r="P6" s="44">
         <v>4</v>
       </c>
     </row>
@@ -6090,35 +6105,35 @@
       <c r="E7" s="10">
         <v>8</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="F7" s="26" t="s">
         <v>196</v>
       </c>
       <c r="G7" s="10">
         <v>13</v>
       </c>
-      <c r="H7" s="46" t="s">
+      <c r="H7" s="45" t="s">
         <v>203</v>
       </c>
       <c r="I7" s="10">
         <v>19</v>
       </c>
-      <c r="J7" s="27" t="s">
+      <c r="J7" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="K7" s="39" t="s">
+      <c r="K7" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="L7" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M7" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="N7" s="14"/>
-      <c r="O7" s="47" t="s">
+      <c r="L7" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M7" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="N7" s="86"/>
+      <c r="O7" s="46" t="s">
         <v>204</v>
       </c>
-      <c r="P7" s="47">
+      <c r="P7" s="46">
         <v>3</v>
       </c>
     </row>
@@ -6138,35 +6153,35 @@
       <c r="E8" s="10">
         <v>11</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="26" t="s">
         <v>198</v>
       </c>
       <c r="G8" s="10">
         <v>18</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="25" t="s">
         <v>205</v>
       </c>
       <c r="I8" s="10">
         <v>27</v>
       </c>
-      <c r="J8" s="27" t="s">
+      <c r="J8" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="K8" s="20" t="s">
+      <c r="K8" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="L8" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M8" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="N8" s="14"/>
-      <c r="O8" s="48" t="s">
+      <c r="L8" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M8" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="N8" s="86"/>
+      <c r="O8" s="47" t="s">
         <v>207</v>
       </c>
-      <c r="P8" s="48">
+      <c r="P8" s="47">
         <v>8</v>
       </c>
     </row>
@@ -6186,185 +6201,185 @@
       <c r="E9" s="10">
         <v>9</v>
       </c>
-      <c r="F9" s="49" t="s">
+      <c r="F9" s="48" t="s">
         <v>208</v>
       </c>
       <c r="G9" s="10">
         <v>14</v>
       </c>
-      <c r="H9" s="50" t="s">
+      <c r="H9" s="49" t="s">
         <v>209</v>
       </c>
       <c r="I9" s="10">
         <v>20</v>
       </c>
-      <c r="J9" s="51" t="s">
+      <c r="J9" s="50" t="s">
         <v>210</v>
       </c>
-      <c r="K9" s="20" t="s">
+      <c r="K9" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="L9" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M9" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="N9" s="14"/>
-      <c r="O9" s="52" t="s">
+      <c r="L9" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M9" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="N9" s="86"/>
+      <c r="O9" s="51" t="s">
         <v>211</v>
       </c>
-      <c r="P9" s="52">
+      <c r="P9" s="51">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="51">
-      <c r="A10" s="21" t="s">
+    <row r="10" spans="1:16" ht="38.25">
+      <c r="A10" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="23">
-        <v>2</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="E10" s="23">
+      <c r="C10" s="22">
+        <v>2</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="E10" s="22">
         <v>12</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="22">
         <v>19</v>
       </c>
-      <c r="H10" s="53" t="s">
+      <c r="H10" s="52" t="s">
         <v>212</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="22">
         <v>29</v>
       </c>
-      <c r="J10" s="23" t="s">
+      <c r="J10" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="K10" s="39" t="s">
+      <c r="K10" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="L10" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M10" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="N10" s="14" t="s">
+      <c r="L10" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M10" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="N10" s="86" t="s">
         <v>189</v>
       </c>
-      <c r="O10" s="54" t="s">
+      <c r="O10" s="53" t="s">
         <v>213</v>
       </c>
-      <c r="P10" s="54">
+      <c r="P10" s="53">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="38.25">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="23">
-        <v>2</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="E11" s="23">
+      <c r="C11" s="22">
+        <v>2</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="E11" s="22">
         <v>12</v>
       </c>
-      <c r="F11" s="55" t="s">
+      <c r="F11" s="54" t="s">
         <v>214</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="22">
         <v>19</v>
       </c>
-      <c r="H11" s="56" t="s">
+      <c r="H11" s="55" t="s">
         <v>196</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="22">
         <v>28</v>
       </c>
-      <c r="J11" s="23" t="s">
+      <c r="J11" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="K11" s="39" t="s">
+      <c r="K11" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="L11" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M11" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="N11" s="14"/>
-      <c r="O11" s="57" t="s">
+      <c r="L11" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M11" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="N11" s="86"/>
+      <c r="O11" s="56" t="s">
         <v>216</v>
       </c>
-      <c r="P11" s="57">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="51">
-      <c r="A12" s="21" t="s">
+      <c r="P11" s="56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="38.25">
+      <c r="A12" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="23">
-        <v>2</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="E12" s="23">
+      <c r="C12" s="22">
+        <v>2</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="E12" s="22">
         <v>10</v>
       </c>
-      <c r="F12" s="58" t="s">
+      <c r="F12" s="57" t="s">
         <v>217</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="22">
         <v>15</v>
       </c>
-      <c r="H12" s="51" t="s">
+      <c r="H12" s="50" t="s">
         <v>210</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="22">
         <v>23</v>
       </c>
-      <c r="J12" s="24" t="s">
+      <c r="J12" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="K12" s="39" t="s">
+      <c r="K12" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="L12" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M12" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="N12" s="14"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
+      <c r="L12" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M12" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="N12" s="86"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
     </row>
     <row r="13" spans="1:16" ht="38.25">
       <c r="A13" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="24" t="s">
         <v>59</v>
       </c>
       <c r="C13" s="10">
@@ -6376,41 +6391,41 @@
       <c r="E13" s="10">
         <v>10</v>
       </c>
-      <c r="F13" s="59" t="s">
+      <c r="F13" s="58" t="s">
         <v>203</v>
       </c>
       <c r="G13" s="10">
         <v>15</v>
       </c>
-      <c r="H13" s="60" t="s">
+      <c r="H13" s="59" t="s">
         <v>218</v>
       </c>
       <c r="I13" s="10">
         <v>24</v>
       </c>
-      <c r="J13" s="27" t="s">
+      <c r="J13" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="K13" s="39" t="s">
+      <c r="K13" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="L13" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M13" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="N13" s="14" t="s">
+      <c r="L13" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M13" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="N13" s="86" t="s">
         <v>189</v>
       </c>
-      <c r="O13" s="15"/>
-      <c r="P13" s="23"/>
-    </row>
-    <row r="14" spans="1:16" ht="51">
+      <c r="O13" s="14"/>
+      <c r="P13" s="22"/>
+    </row>
+    <row r="14" spans="1:16" ht="38.25">
       <c r="A14" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="24" t="s">
         <v>64</v>
       </c>
       <c r="C14" s="10">
@@ -6428,33 +6443,33 @@
       <c r="G14" s="10">
         <v>18</v>
       </c>
-      <c r="H14" s="61" t="s">
+      <c r="H14" s="60" t="s">
         <v>199</v>
       </c>
       <c r="I14" s="10">
         <v>27</v>
       </c>
-      <c r="J14" s="26" t="s">
+      <c r="J14" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="K14" s="39" t="s">
+      <c r="K14" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="L14" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M14" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="N14" s="14"/>
-      <c r="O14" s="62"/>
-      <c r="P14" s="23"/>
+      <c r="L14" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M14" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="N14" s="86"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="22"/>
     </row>
     <row r="15" spans="1:16" ht="38.25">
       <c r="A15" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="24" t="s">
         <v>67</v>
       </c>
       <c r="C15" s="10">
@@ -6466,7 +6481,7 @@
       <c r="E15" s="10">
         <v>12</v>
       </c>
-      <c r="F15" s="50" t="s">
+      <c r="F15" s="49" t="s">
         <v>212</v>
       </c>
       <c r="G15" s="10">
@@ -6478,27 +6493,27 @@
       <c r="I15" s="10">
         <v>29</v>
       </c>
-      <c r="J15" s="27" t="s">
+      <c r="J15" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="K15" s="39" t="s">
+      <c r="K15" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="L15" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M15" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="N15" s="14"/>
-      <c r="O15" s="62"/>
-      <c r="P15" s="23"/>
+      <c r="L15" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M15" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="N15" s="86"/>
+      <c r="O15" s="61"/>
+      <c r="P15" s="22"/>
     </row>
     <row r="16" spans="1:16" ht="38.25">
       <c r="A16" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="24" t="s">
         <v>70</v>
       </c>
       <c r="C16" s="10">
@@ -6516,33 +6531,33 @@
       <c r="G16" s="10">
         <v>19</v>
       </c>
-      <c r="H16" s="63" t="s">
+      <c r="H16" s="62" t="s">
         <v>220</v>
       </c>
       <c r="I16" s="10">
         <v>28</v>
       </c>
-      <c r="J16" s="27" t="s">
+      <c r="J16" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="K16" s="39" t="s">
+      <c r="K16" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="L16" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M16" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="N16" s="14"/>
+      <c r="L16" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M16" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="N16" s="86"/>
       <c r="O16" s="6"/>
-      <c r="P16" s="23"/>
-    </row>
-    <row r="17" spans="1:16" ht="51">
+      <c r="P16" s="22"/>
+    </row>
+    <row r="17" spans="1:16" ht="38.25">
       <c r="A17" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="24" t="s">
         <v>72</v>
       </c>
       <c r="C17" s="10">
@@ -6554,39 +6569,39 @@
       <c r="E17" s="10">
         <v>9</v>
       </c>
-      <c r="F17" s="61" t="s">
+      <c r="F17" s="60" t="s">
         <v>199</v>
       </c>
       <c r="G17" s="10">
         <v>14</v>
       </c>
-      <c r="H17" s="27" t="s">
+      <c r="H17" s="26" t="s">
         <v>221</v>
       </c>
       <c r="I17" s="10">
         <v>20</v>
       </c>
-      <c r="J17" s="64" t="s">
+      <c r="J17" s="63" t="s">
         <v>222</v>
       </c>
-      <c r="K17" s="39" t="s">
+      <c r="K17" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="L17" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M17" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="N17" s="14"/>
+      <c r="L17" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M17" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="N17" s="86"/>
       <c r="O17" s="6"/>
-      <c r="P17" s="23"/>
+      <c r="P17" s="22"/>
     </row>
     <row r="18" spans="1:16" ht="38.25">
       <c r="A18" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="24" t="s">
         <v>74</v>
       </c>
       <c r="C18" s="10">
@@ -6604,33 +6619,33 @@
       <c r="G18" s="10">
         <v>17</v>
       </c>
-      <c r="H18" s="64" t="s">
+      <c r="H18" s="63" t="s">
         <v>223</v>
       </c>
       <c r="I18" s="10">
         <v>25</v>
       </c>
-      <c r="J18" s="27" t="s">
+      <c r="J18" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="K18" s="39" t="s">
+      <c r="K18" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="L18" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M18" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="N18" s="14"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="23"/>
+      <c r="L18" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M18" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="N18" s="86"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="22"/>
     </row>
     <row r="19" spans="1:16" ht="38.25">
       <c r="A19" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="24" t="s">
         <v>77</v>
       </c>
       <c r="C19" s="10">
@@ -6642,39 +6657,39 @@
       <c r="E19" s="10">
         <v>8</v>
       </c>
-      <c r="F19" s="65" t="s">
+      <c r="F19" s="64" t="s">
         <v>210</v>
       </c>
       <c r="G19" s="10">
         <v>12</v>
       </c>
-      <c r="H19" s="66" t="s">
+      <c r="H19" s="65" t="s">
         <v>224</v>
       </c>
       <c r="I19" s="10">
         <v>18</v>
       </c>
-      <c r="J19" s="27" t="s">
+      <c r="J19" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="K19" s="20" t="s">
+      <c r="K19" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="L19" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M19" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="N19" s="14"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="23"/>
-    </row>
-    <row r="20" spans="1:16" ht="51">
+      <c r="L19" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M19" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="N19" s="86"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="22"/>
+    </row>
+    <row r="20" spans="1:16" ht="38.25">
       <c r="A20" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="24" t="s">
         <v>81</v>
       </c>
       <c r="C20" s="10">
@@ -6686,167 +6701,167 @@
       <c r="E20" s="10">
         <v>10</v>
       </c>
-      <c r="F20" s="50" t="s">
+      <c r="F20" s="49" t="s">
         <v>209</v>
       </c>
       <c r="G20" s="10">
         <v>16</v>
       </c>
-      <c r="H20" s="27" t="s">
+      <c r="H20" s="26" t="s">
         <v>221</v>
       </c>
       <c r="I20" s="10">
         <v>24</v>
       </c>
-      <c r="J20" s="67" t="s">
+      <c r="J20" s="66" t="s">
         <v>225</v>
       </c>
-      <c r="K20" s="20" t="s">
+      <c r="K20" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="L20" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M20" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="N20" s="14"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="23"/>
+      <c r="L20" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M20" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="N20" s="86"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="22"/>
     </row>
     <row r="21" spans="1:16" ht="38.25">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="23">
-        <v>2</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="E21" s="23">
+      <c r="C21" s="22">
+        <v>2</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="E21" s="22">
         <v>11</v>
       </c>
-      <c r="F21" s="23" t="s">
+      <c r="F21" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="G21" s="23">
+      <c r="G21" s="22">
         <v>18</v>
       </c>
-      <c r="H21" s="68" t="s">
+      <c r="H21" s="67" t="s">
         <v>226</v>
       </c>
-      <c r="I21" s="23">
+      <c r="I21" s="22">
         <v>27</v>
       </c>
-      <c r="J21" s="23" t="s">
+      <c r="J21" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="K21" s="39" t="s">
+      <c r="K21" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="L21" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M21" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="N21" s="14" t="s">
+      <c r="L21" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M21" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="N21" s="86" t="s">
         <v>189</v>
       </c>
-      <c r="O21" s="15"/>
-      <c r="P21" s="23"/>
-    </row>
-    <row r="22" spans="1:16" ht="51">
-      <c r="A22" s="21" t="s">
+      <c r="O21" s="14"/>
+      <c r="P21" s="22"/>
+    </row>
+    <row r="22" spans="1:16" ht="38.25">
+      <c r="A22" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="23">
-        <v>2</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="E22" s="23">
+      <c r="C22" s="22">
+        <v>2</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="E22" s="22">
         <v>9</v>
       </c>
-      <c r="F22" s="24" t="s">
+      <c r="F22" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="G22" s="23">
+      <c r="G22" s="22">
         <v>15</v>
       </c>
-      <c r="H22" s="24" t="s">
+      <c r="H22" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="I22" s="23">
+      <c r="I22" s="22">
         <v>22</v>
       </c>
-      <c r="J22" s="23" t="s">
+      <c r="J22" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="K22" s="39" t="s">
+      <c r="K22" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="L22" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M22" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="N22" s="14"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="23"/>
+      <c r="L22" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M22" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="N22" s="86"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="22"/>
     </row>
     <row r="23" spans="1:16" ht="38.25">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="C23" s="23">
-        <v>2</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="E23" s="23">
+      <c r="C23" s="22">
+        <v>2</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="E23" s="22">
         <v>10</v>
       </c>
-      <c r="F23" s="23" t="s">
+      <c r="F23" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="G23" s="23">
+      <c r="G23" s="22">
         <v>16</v>
       </c>
-      <c r="H23" s="69" t="s">
+      <c r="H23" s="68" t="s">
         <v>227</v>
       </c>
-      <c r="I23" s="23">
+      <c r="I23" s="22">
         <v>24</v>
       </c>
-      <c r="J23" s="55" t="s">
+      <c r="J23" s="54" t="s">
         <v>214</v>
       </c>
-      <c r="K23" s="39" t="s">
+      <c r="K23" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="L23" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M23" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="N23" s="14"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="23"/>
+      <c r="L23" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M23" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="N23" s="86"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="22"/>
     </row>
     <row r="24" spans="1:16" ht="38.25">
       <c r="A24" s="8" t="s">
@@ -6870,29 +6885,29 @@
       <c r="G24" s="10">
         <v>19</v>
       </c>
-      <c r="H24" s="60" t="s">
+      <c r="H24" s="59" t="s">
         <v>218</v>
       </c>
       <c r="I24" s="10">
         <v>28</v>
       </c>
-      <c r="J24" s="61" t="s">
+      <c r="J24" s="60" t="s">
         <v>199</v>
       </c>
-      <c r="K24" s="39" t="s">
+      <c r="K24" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="L24" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M24" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="N24" s="14" t="s">
+      <c r="L24" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M24" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="N24" s="86" t="s">
         <v>189</v>
       </c>
-      <c r="O24" s="15"/>
-      <c r="P24" s="23"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="22"/>
     </row>
     <row r="25" spans="1:16" ht="38.25">
       <c r="A25" s="8" t="s">
@@ -6916,7 +6931,7 @@
       <c r="G25" s="10">
         <v>19</v>
       </c>
-      <c r="H25" s="60" t="s">
+      <c r="H25" s="59" t="s">
         <v>218</v>
       </c>
       <c r="I25" s="10">
@@ -6925,18 +6940,18 @@
       <c r="J25" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="K25" s="39" t="s">
+      <c r="K25" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="L25" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M25" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="N25" s="14"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="23"/>
+      <c r="L25" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M25" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="N25" s="86"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="22"/>
     </row>
     <row r="26" spans="1:16" ht="38.25">
       <c r="A26" s="8" t="s">
@@ -6966,23 +6981,23 @@
       <c r="I26" s="10">
         <v>20</v>
       </c>
-      <c r="J26" s="70" t="s">
+      <c r="J26" s="69" t="s">
         <v>225</v>
       </c>
-      <c r="K26" s="39" t="s">
+      <c r="K26" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="L26" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M26" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="N26" s="14"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="23"/>
-    </row>
-    <row r="27" spans="1:16" ht="51">
+      <c r="L26" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M26" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="N26" s="86"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="22"/>
+    </row>
+    <row r="27" spans="1:16" ht="38.25">
       <c r="A27" s="8" t="s">
         <v>97</v>
       </c>
@@ -6998,39 +7013,39 @@
       <c r="E27" s="10">
         <v>9</v>
       </c>
-      <c r="F27" s="60" t="s">
+      <c r="F27" s="59" t="s">
         <v>218</v>
       </c>
       <c r="G27" s="10">
         <v>14</v>
       </c>
-      <c r="H27" s="26" t="s">
+      <c r="H27" s="25" t="s">
         <v>185</v>
       </c>
       <c r="I27" s="10">
         <v>20</v>
       </c>
-      <c r="J27" s="63" t="s">
+      <c r="J27" s="62" t="s">
         <v>220</v>
       </c>
-      <c r="K27" s="39" t="s">
+      <c r="K27" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="L27" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M27" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="N27" s="14"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="23"/>
+      <c r="L27" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M27" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="N27" s="86"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="22"/>
     </row>
     <row r="28" spans="1:16" ht="38.25">
       <c r="A28" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="28" t="s">
         <v>115</v>
       </c>
       <c r="C28" s="10">
@@ -7042,33 +7057,33 @@
       <c r="E28" s="10">
         <v>9</v>
       </c>
-      <c r="F28" s="71" t="s">
+      <c r="F28" s="70" t="s">
         <v>214</v>
       </c>
       <c r="G28" s="10">
         <v>15</v>
       </c>
-      <c r="H28" s="27" t="s">
+      <c r="H28" s="26" t="s">
         <v>228</v>
       </c>
       <c r="I28" s="10">
         <v>22</v>
       </c>
-      <c r="J28" s="60" t="s">
+      <c r="J28" s="59" t="s">
         <v>218</v>
       </c>
-      <c r="K28" s="39" t="s">
+      <c r="K28" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="L28" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M28" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="N28" s="14"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="23"/>
+      <c r="L28" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M28" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="N28" s="86"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="22"/>
     </row>
     <row r="29" spans="1:16" ht="38.25">
       <c r="A29" s="10" t="s">
@@ -7086,217 +7101,217 @@
       <c r="E29" s="10">
         <v>8</v>
       </c>
-      <c r="F29" s="71" t="s">
+      <c r="F29" s="70" t="s">
         <v>192</v>
       </c>
       <c r="G29" s="10">
         <v>13</v>
       </c>
-      <c r="H29" s="63" t="s">
+      <c r="H29" s="62" t="s">
         <v>220</v>
       </c>
       <c r="I29" s="10">
         <v>19</v>
       </c>
-      <c r="J29" s="27" t="s">
+      <c r="J29" s="26" t="s">
         <v>228</v>
       </c>
-      <c r="K29" s="20" t="s">
+      <c r="K29" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="L29" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M29" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="N29" s="14"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="23"/>
-    </row>
-    <row r="30" spans="1:16" ht="51">
-      <c r="A30" s="21" t="s">
+      <c r="L29" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M29" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="N29" s="86"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="22"/>
+    </row>
+    <row r="30" spans="1:16" ht="38.25">
+      <c r="A30" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="C30" s="23">
-        <v>2</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="E30" s="23">
+      <c r="C30" s="22">
+        <v>2</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="E30" s="22">
         <v>13</v>
       </c>
-      <c r="F30" s="70" t="s">
+      <c r="F30" s="69" t="s">
         <v>225</v>
       </c>
-      <c r="G30" s="23">
+      <c r="G30" s="22">
         <v>20</v>
       </c>
-      <c r="H30" s="23" t="s">
+      <c r="H30" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="I30" s="23">
+      <c r="I30" s="22">
         <v>30</v>
       </c>
-      <c r="J30" s="24" t="s">
+      <c r="J30" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="K30" s="39" t="s">
+      <c r="K30" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="L30" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M30" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="N30" s="14" t="s">
+      <c r="L30" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M30" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="N30" s="86" t="s">
         <v>189</v>
       </c>
-      <c r="O30" s="15"/>
-      <c r="P30" s="23"/>
-    </row>
-    <row r="31" spans="1:16" ht="51">
-      <c r="A31" s="21" t="s">
+      <c r="O30" s="14"/>
+      <c r="P30" s="22"/>
+    </row>
+    <row r="31" spans="1:16" ht="38.25">
+      <c r="A31" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="C31" s="23">
-        <v>2</v>
-      </c>
-      <c r="D31" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="E31" s="23">
+      <c r="C31" s="22">
+        <v>2</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="E31" s="22">
         <v>10</v>
       </c>
-      <c r="F31" s="24" t="s">
+      <c r="F31" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="G31" s="23">
+      <c r="G31" s="22">
         <v>16</v>
       </c>
-      <c r="H31" s="72" t="s">
+      <c r="H31" s="71" t="s">
         <v>218</v>
       </c>
-      <c r="I31" s="23">
+      <c r="I31" s="22">
         <v>24</v>
       </c>
-      <c r="J31" s="23" t="s">
+      <c r="J31" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="K31" s="39" t="s">
+      <c r="K31" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="L31" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M31" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="N31" s="14"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="23"/>
+      <c r="L31" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M31" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="N31" s="86"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="22"/>
     </row>
     <row r="32" spans="1:16" ht="38.25">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="B32" s="30" t="s">
+      <c r="B32" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="C32" s="23">
-        <v>2</v>
-      </c>
-      <c r="D32" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="E32" s="23">
+      <c r="C32" s="22">
+        <v>2</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="E32" s="22">
         <v>10</v>
       </c>
-      <c r="F32" s="23" t="s">
+      <c r="F32" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="G32" s="23">
+      <c r="G32" s="22">
         <v>15</v>
       </c>
-      <c r="H32" s="55" t="s">
+      <c r="H32" s="54" t="s">
         <v>214</v>
       </c>
-      <c r="I32" s="23">
+      <c r="I32" s="22">
         <v>23</v>
       </c>
-      <c r="J32" s="23" t="s">
+      <c r="J32" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="K32" s="39" t="s">
+      <c r="K32" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="L32" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M32" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="N32" s="14"/>
-      <c r="O32" s="15"/>
-      <c r="P32" s="23"/>
-    </row>
-    <row r="33" spans="1:16" ht="51">
-      <c r="A33" s="21" t="s">
+      <c r="L32" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M32" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="N32" s="86"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="22"/>
+    </row>
+    <row r="33" spans="1:16" ht="38.25">
+      <c r="A33" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="C33" s="23">
-        <v>2</v>
-      </c>
-      <c r="D33" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="E33" s="23">
+      <c r="C33" s="22">
+        <v>2</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="E33" s="22">
         <v>8</v>
       </c>
-      <c r="F33" s="24" t="s">
+      <c r="F33" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="G33" s="23">
+      <c r="G33" s="22">
         <v>12</v>
       </c>
-      <c r="H33" s="59" t="s">
+      <c r="H33" s="58" t="s">
         <v>203</v>
       </c>
-      <c r="I33" s="23">
+      <c r="I33" s="22">
         <v>18</v>
       </c>
-      <c r="J33" s="72" t="s">
+      <c r="J33" s="71" t="s">
         <v>218</v>
       </c>
-      <c r="K33" s="39" t="s">
+      <c r="K33" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="L33" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M33" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="N33" s="14"/>
-      <c r="O33" s="15"/>
-      <c r="P33" s="23"/>
+      <c r="L33" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M33" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="N33" s="86"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="22"/>
     </row>
     <row r="34" spans="1:16" ht="38.25">
       <c r="A34" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="30" t="s">
         <v>133</v>
       </c>
       <c r="C34" s="10">
@@ -7314,35 +7329,35 @@
       <c r="G34" s="10">
         <v>17</v>
       </c>
-      <c r="H34" s="60" t="s">
+      <c r="H34" s="59" t="s">
         <v>218</v>
       </c>
       <c r="I34" s="10">
         <v>29</v>
       </c>
-      <c r="J34" s="66" t="s">
+      <c r="J34" s="65" t="s">
         <v>230</v>
       </c>
-      <c r="K34" s="39" t="s">
+      <c r="K34" s="38" t="s">
         <v>186</v>
       </c>
       <c r="L34" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="M34" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="N34" s="14" t="s">
+      <c r="M34" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="N34" s="86" t="s">
         <v>189</v>
       </c>
-      <c r="O34" s="15"/>
-      <c r="P34" s="23"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="22"/>
     </row>
     <row r="35" spans="1:16" ht="38.25">
       <c r="A35" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="B35" s="31" t="s">
+      <c r="B35" s="30" t="s">
         <v>139</v>
       </c>
       <c r="C35" s="10">
@@ -7354,13 +7369,13 @@
       <c r="E35" s="10">
         <v>13</v>
       </c>
-      <c r="F35" s="63" t="s">
+      <c r="F35" s="62" t="s">
         <v>220</v>
       </c>
       <c r="G35" s="10">
         <v>21</v>
       </c>
-      <c r="H35" s="60" t="s">
+      <c r="H35" s="59" t="s">
         <v>218</v>
       </c>
       <c r="I35" s="10">
@@ -7369,24 +7384,24 @@
       <c r="J35" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="K35" s="39" t="s">
+      <c r="K35" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="L35" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M35" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="N35" s="14"/>
-      <c r="O35" s="15"/>
-      <c r="P35" s="23"/>
+      <c r="L35" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M35" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="N35" s="86"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="22"/>
     </row>
     <row r="36" spans="1:16" ht="38.25">
       <c r="A36" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="B36" s="31" t="s">
+      <c r="B36" s="30" t="s">
         <v>142</v>
       </c>
       <c r="C36" s="10">
@@ -7398,13 +7413,13 @@
       <c r="E36" s="10">
         <v>14</v>
       </c>
-      <c r="F36" s="61" t="s">
+      <c r="F36" s="60" t="s">
         <v>199</v>
       </c>
       <c r="G36" s="10">
         <v>22</v>
       </c>
-      <c r="H36" s="63" t="s">
+      <c r="H36" s="62" t="s">
         <v>220</v>
       </c>
       <c r="I36" s="10">
@@ -7413,24 +7428,24 @@
       <c r="J36" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="K36" s="39" t="s">
+      <c r="K36" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="L36" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M36" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="N36" s="14"/>
-      <c r="O36" s="15"/>
-      <c r="P36" s="23"/>
-    </row>
-    <row r="37" spans="1:16" ht="51">
+      <c r="L36" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M36" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="N36" s="86"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="22"/>
+    </row>
+    <row r="37" spans="1:16" ht="38.25">
       <c r="A37" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B37" s="31" t="s">
+      <c r="B37" s="30" t="s">
         <v>145</v>
       </c>
       <c r="C37" s="10">
@@ -7442,13 +7457,13 @@
       <c r="E37" s="10">
         <v>9</v>
       </c>
-      <c r="F37" s="66" t="s">
+      <c r="F37" s="65" t="s">
         <v>230</v>
       </c>
       <c r="G37" s="10">
         <v>14</v>
       </c>
-      <c r="H37" s="26" t="s">
+      <c r="H37" s="25" t="s">
         <v>185</v>
       </c>
       <c r="I37" s="10">
@@ -7457,202 +7472,202 @@
       <c r="J37" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="K37" s="20" t="s">
+      <c r="K37" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="L37" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M37" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="N37" s="14"/>
-      <c r="O37" s="15"/>
-      <c r="P37" s="23"/>
-    </row>
-    <row r="38" spans="1:16" ht="51">
-      <c r="A38" s="21" t="s">
+      <c r="L37" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M37" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="N37" s="86"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="22"/>
+    </row>
+    <row r="38" spans="1:16" ht="38.25">
+      <c r="A38" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="B38" s="33" t="s">
+      <c r="B38" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="C38" s="23">
-        <v>2</v>
-      </c>
-      <c r="D38" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="E38" s="23">
+      <c r="C38" s="22">
+        <v>2</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="E38" s="22">
         <v>9</v>
       </c>
-      <c r="F38" s="69" t="s">
+      <c r="F38" s="68" t="s">
         <v>220</v>
       </c>
-      <c r="G38" s="23">
+      <c r="G38" s="22">
         <v>14</v>
       </c>
-      <c r="H38" s="24" t="s">
+      <c r="H38" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="I38" s="23">
+      <c r="I38" s="22">
         <v>21</v>
       </c>
-      <c r="J38" s="23" t="s">
+      <c r="J38" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="K38" s="39" t="s">
+      <c r="K38" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="L38" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M38" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="N38" s="14" t="s">
+      <c r="L38" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M38" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="N38" s="86" t="s">
         <v>189</v>
       </c>
-      <c r="O38" s="15"/>
-      <c r="P38" s="23"/>
-    </row>
-    <row r="39" spans="1:16" ht="51">
-      <c r="A39" s="21" t="s">
+      <c r="O38" s="14"/>
+      <c r="P38" s="22"/>
+    </row>
+    <row r="39" spans="1:16" ht="38.25">
+      <c r="A39" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="B39" s="33" t="s">
+      <c r="B39" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="C39" s="23">
-        <v>2</v>
-      </c>
-      <c r="D39" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="E39" s="23">
+      <c r="C39" s="22">
+        <v>2</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="E39" s="22">
         <v>9</v>
       </c>
-      <c r="F39" s="70" t="s">
+      <c r="F39" s="69" t="s">
         <v>225</v>
       </c>
-      <c r="G39" s="23">
+      <c r="G39" s="22">
         <v>14</v>
       </c>
-      <c r="H39" s="23" t="s">
+      <c r="H39" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="I39" s="23">
+      <c r="I39" s="22">
         <v>21</v>
       </c>
-      <c r="J39" s="24" t="s">
+      <c r="J39" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="K39" s="39" t="s">
+      <c r="K39" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="L39" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M39" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="N39" s="14"/>
-      <c r="O39" s="15"/>
-      <c r="P39" s="23"/>
+      <c r="L39" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M39" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="N39" s="86"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="22"/>
     </row>
     <row r="40" spans="1:16" ht="38.25">
-      <c r="A40" s="21" t="s">
+      <c r="A40" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="B40" s="33" t="s">
+      <c r="B40" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="C40" s="23">
-        <v>2</v>
-      </c>
-      <c r="D40" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="E40" s="23">
+      <c r="C40" s="22">
+        <v>2</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="E40" s="22">
         <v>11</v>
       </c>
-      <c r="F40" s="73" t="s">
+      <c r="F40" s="72" t="s">
         <v>230</v>
       </c>
-      <c r="G40" s="23">
+      <c r="G40" s="22">
         <v>17</v>
       </c>
-      <c r="H40" s="59" t="s">
+      <c r="H40" s="58" t="s">
         <v>203</v>
       </c>
-      <c r="I40" s="23">
+      <c r="I40" s="22">
         <v>26</v>
       </c>
-      <c r="J40" s="23" t="s">
+      <c r="J40" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="K40" s="39" t="s">
+      <c r="K40" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="L40" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M40" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="N40" s="14"/>
-      <c r="O40" s="15"/>
-      <c r="P40" s="23"/>
+      <c r="L40" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M40" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="N40" s="86"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="22"/>
     </row>
     <row r="41" spans="1:16" ht="38.25">
-      <c r="A41" s="21" t="s">
+      <c r="A41" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="B41" s="33" t="s">
+      <c r="B41" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C41" s="23">
-        <v>2</v>
-      </c>
-      <c r="D41" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="E41" s="23">
+      <c r="C41" s="22">
+        <v>2</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="E41" s="22">
         <v>7</v>
       </c>
-      <c r="F41" s="68" t="s">
+      <c r="F41" s="67" t="s">
         <v>232</v>
       </c>
-      <c r="G41" s="23">
+      <c r="G41" s="22">
         <v>10</v>
       </c>
-      <c r="H41" s="21" t="s">
+      <c r="H41" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="I41" s="23">
+      <c r="I41" s="22">
         <v>15</v>
       </c>
-      <c r="J41" s="23" t="s">
+      <c r="J41" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="K41" s="39" t="s">
+      <c r="K41" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="L41" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M41" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="N41" s="14"/>
-      <c r="O41" s="15"/>
-      <c r="P41" s="23"/>
+      <c r="L41" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M41" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="N41" s="86"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="22"/>
     </row>
     <row r="42" spans="1:16" ht="38.25">
       <c r="A42" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="B42" s="34" t="s">
+      <c r="B42" s="33" t="s">
         <v>159</v>
       </c>
       <c r="C42" s="10">
@@ -7661,44 +7676,44 @@
       <c r="D42" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="E42" s="35" t="s">
+      <c r="E42" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="F42" s="35" t="s">
+      <c r="F42" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="G42" s="35" t="s">
+      <c r="G42" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="H42" s="35" t="s">
+      <c r="H42" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="I42" s="35" t="s">
+      <c r="I42" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="J42" s="35" t="s">
+      <c r="J42" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="K42" s="39" t="s">
+      <c r="K42" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="L42" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M42" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="N42" s="14" t="s">
+      <c r="L42" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M42" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="N42" s="86" t="s">
         <v>189</v>
       </c>
-      <c r="O42" s="15"/>
-      <c r="P42" s="23"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="22"/>
     </row>
     <row r="43" spans="1:16" ht="38.25">
       <c r="A43" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="B43" s="34" t="s">
+      <c r="B43" s="33" t="s">
         <v>165</v>
       </c>
       <c r="C43" s="10">
@@ -7707,140 +7722,140 @@
       <c r="D43" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="E43" s="35" t="s">
+      <c r="E43" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="F43" s="35" t="s">
+      <c r="F43" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="G43" s="35" t="s">
+      <c r="G43" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="H43" s="35" t="s">
+      <c r="H43" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="I43" s="35" t="s">
+      <c r="I43" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="J43" s="35" t="s">
+      <c r="J43" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="K43" s="20" t="s">
+      <c r="K43" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="L43" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M43" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="N43" s="14"/>
-      <c r="O43" s="15"/>
-      <c r="P43" s="23"/>
+      <c r="L43" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M43" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="N43" s="86"/>
+      <c r="O43" s="14"/>
+      <c r="P43" s="22"/>
     </row>
     <row r="44" spans="1:16" ht="38.25">
-      <c r="A44" s="21" t="s">
+      <c r="A44" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="B44" s="36" t="s">
+      <c r="B44" s="35" t="s">
         <v>170</v>
       </c>
-      <c r="C44" s="23">
+      <c r="C44" s="22">
         <v>4</v>
       </c>
-      <c r="D44" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="E44" s="37" t="s">
+      <c r="D44" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="E44" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="F44" s="37" t="s">
+      <c r="F44" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="G44" s="37" t="s">
+      <c r="G44" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="H44" s="37" t="s">
+      <c r="H44" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="I44" s="37" t="s">
+      <c r="I44" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="J44" s="37" t="s">
+      <c r="J44" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="K44" s="39" t="s">
+      <c r="K44" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="L44" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M44" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="N44" s="14" t="s">
+      <c r="L44" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M44" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="N44" s="86" t="s">
         <v>189</v>
       </c>
-      <c r="O44" s="15"/>
-      <c r="P44" s="23"/>
+      <c r="O44" s="14"/>
+      <c r="P44" s="22"/>
     </row>
     <row r="45" spans="1:16" ht="38.25">
-      <c r="A45" s="21" t="s">
+      <c r="A45" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="B45" s="36" t="s">
+      <c r="B45" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="C45" s="23">
+      <c r="C45" s="22">
         <v>4</v>
       </c>
-      <c r="D45" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="E45" s="37" t="s">
+      <c r="D45" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="E45" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="F45" s="37" t="s">
+      <c r="F45" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="G45" s="37" t="s">
+      <c r="G45" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="H45" s="37" t="s">
+      <c r="H45" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="I45" s="37" t="s">
+      <c r="I45" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="J45" s="37" t="s">
+      <c r="J45" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="K45" s="39" t="s">
+      <c r="K45" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="L45" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M45" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="N45" s="14"/>
-      <c r="O45" s="15"/>
-      <c r="P45" s="23"/>
+      <c r="L45" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M45" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="N45" s="86"/>
+      <c r="O45" s="14"/>
+      <c r="P45" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="N24:N29"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="N4:N9"/>
+    <mergeCell ref="N10:N12"/>
+    <mergeCell ref="N13:N20"/>
+    <mergeCell ref="N21:N23"/>
     <mergeCell ref="N30:N33"/>
     <mergeCell ref="N34:N37"/>
     <mergeCell ref="N38:N41"/>
     <mergeCell ref="N42:N43"/>
     <mergeCell ref="N44:N45"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="N4:N9"/>
-    <mergeCell ref="N10:N12"/>
-    <mergeCell ref="N13:N20"/>
-    <mergeCell ref="N21:N23"/>
-    <mergeCell ref="N24:N29"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7851,7 +7866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
@@ -7874,60 +7889,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="69.75">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>233</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="75" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="76" t="s">
+      <c r="C1" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="76" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="76" t="s">
+      <c r="E1" s="75" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="76" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="76" t="s">
+      <c r="G1" s="75" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="76" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="76" t="s">
+      <c r="I1" s="75" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="77" t="s">
+      <c r="K1" s="76" t="s">
         <v>234</v>
       </c>
-      <c r="L1" s="77" t="s">
+      <c r="L1" s="76" t="s">
         <v>235</v>
       </c>
-      <c r="M1" s="77" t="s">
+      <c r="M1" s="76" t="s">
         <v>236</v>
       </c>
-      <c r="N1" s="76" t="s">
+      <c r="N1" s="75" t="s">
         <v>237</v>
       </c>
-      <c r="O1" s="38" t="s">
+      <c r="O1" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="P1" s="23" t="s">
+      <c r="P1" s="22" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="51">
+    <row r="2" spans="1:16" ht="38.25">
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="77" t="s">
         <v>238</v>
       </c>
       <c r="C2" s="10">
@@ -7945,31 +7960,31 @@
       <c r="G2" s="10">
         <v>13</v>
       </c>
-      <c r="H2" s="64" t="s">
+      <c r="H2" s="63" t="s">
         <v>222</v>
       </c>
       <c r="I2" s="10">
         <v>19</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="25" t="s">
         <v>201</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="L2" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M2" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="N2" s="14" t="s">
+      <c r="L2" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="N2" s="86" t="s">
         <v>240</v>
       </c>
-      <c r="O2" s="40" t="s">
+      <c r="O2" s="39" t="s">
         <v>190</v>
       </c>
-      <c r="P2" s="40">
+      <c r="P2" s="39">
         <v>9</v>
       </c>
     </row>
@@ -7977,7 +7992,7 @@
       <c r="A3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="77" t="s">
         <v>241</v>
       </c>
       <c r="C3" s="10">
@@ -7995,37 +8010,37 @@
       <c r="G3" s="10">
         <v>13</v>
       </c>
-      <c r="H3" s="59" t="s">
+      <c r="H3" s="58" t="s">
         <v>203</v>
       </c>
       <c r="I3" s="10">
         <v>19</v>
       </c>
-      <c r="J3" s="61" t="s">
+      <c r="J3" s="60" t="s">
         <v>199</v>
       </c>
       <c r="K3" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="L3" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M3" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="N3" s="14"/>
-      <c r="O3" s="41" t="s">
+      <c r="L3" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="N3" s="86"/>
+      <c r="O3" s="40" t="s">
         <v>193</v>
       </c>
-      <c r="P3" s="41">
+      <c r="P3" s="40">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="51">
+    <row r="4" spans="1:16" ht="38.25">
       <c r="A4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="77" t="s">
         <v>242</v>
       </c>
       <c r="C4" s="10">
@@ -8043,37 +8058,37 @@
       <c r="G4" s="10">
         <v>14</v>
       </c>
-      <c r="H4" s="79" t="s">
+      <c r="H4" s="78" t="s">
         <v>226</v>
       </c>
       <c r="I4" s="10">
         <v>20</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="J4" s="25" t="s">
         <v>184</v>
       </c>
       <c r="K4" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="L4" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M4" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="N4" s="14"/>
-      <c r="O4" s="42" t="s">
+      <c r="L4" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="N4" s="86"/>
+      <c r="O4" s="41" t="s">
         <v>197</v>
       </c>
-      <c r="P4" s="42">
+      <c r="P4" s="41">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="51">
+    <row r="5" spans="1:16" ht="38.25">
       <c r="A5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="77" t="s">
         <v>243</v>
       </c>
       <c r="C5" s="10">
@@ -8085,35 +8100,35 @@
       <c r="E5" s="10">
         <v>8</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="25" t="s">
         <v>183</v>
       </c>
       <c r="G5" s="10">
         <v>14</v>
       </c>
-      <c r="H5" s="26" t="s">
+      <c r="H5" s="25" t="s">
         <v>185</v>
       </c>
       <c r="I5" s="10">
         <v>20</v>
       </c>
-      <c r="J5" s="60" t="s">
+      <c r="J5" s="59" t="s">
         <v>218</v>
       </c>
       <c r="K5" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="L5" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M5" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="N5" s="14"/>
-      <c r="O5" s="44" t="s">
+      <c r="L5" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M5" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="N5" s="86"/>
+      <c r="O5" s="43" t="s">
         <v>200</v>
       </c>
-      <c r="P5" s="44">
+      <c r="P5" s="43">
         <v>8</v>
       </c>
     </row>
@@ -8121,7 +8136,7 @@
       <c r="A6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="77" t="s">
         <v>244</v>
       </c>
       <c r="C6" s="10">
@@ -8145,23 +8160,23 @@
       <c r="I6" s="10">
         <v>19</v>
       </c>
-      <c r="J6" s="65" t="s">
+      <c r="J6" s="64" t="s">
         <v>210</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="L6" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M6" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="N6" s="14"/>
-      <c r="O6" s="45" t="s">
+      <c r="L6" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M6" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="N6" s="86"/>
+      <c r="O6" s="44" t="s">
         <v>202</v>
       </c>
-      <c r="P6" s="45">
+      <c r="P6" s="44">
         <v>5</v>
       </c>
     </row>
@@ -8169,7 +8184,7 @@
       <c r="A7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="77" t="s">
         <v>245</v>
       </c>
       <c r="C7" s="10">
@@ -8181,7 +8196,7 @@
       <c r="E7" s="10">
         <v>9</v>
       </c>
-      <c r="F7" s="59" t="s">
+      <c r="F7" s="58" t="s">
         <v>203</v>
       </c>
       <c r="G7" s="10">
@@ -8193,31 +8208,31 @@
       <c r="I7" s="10">
         <v>17</v>
       </c>
-      <c r="J7" s="64" t="s">
+      <c r="J7" s="63" t="s">
         <v>223</v>
       </c>
       <c r="K7" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="L7" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M7" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="N7" s="14"/>
-      <c r="O7" s="47" t="s">
+      <c r="L7" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M7" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="N7" s="86"/>
+      <c r="O7" s="46" t="s">
         <v>204</v>
       </c>
-      <c r="P7" s="47">
+      <c r="P7" s="46">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="51">
+    <row r="8" spans="1:16" ht="38.25">
       <c r="A8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="77" t="s">
         <v>246</v>
       </c>
       <c r="C8" s="10">
@@ -8229,35 +8244,35 @@
       <c r="E8" s="10">
         <v>10</v>
       </c>
-      <c r="F8" s="60" t="s">
+      <c r="F8" s="59" t="s">
         <v>218</v>
       </c>
       <c r="G8" s="10">
         <v>19</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="25" t="s">
         <v>185</v>
       </c>
       <c r="I8" s="10">
         <v>26</v>
       </c>
-      <c r="J8" s="70" t="s">
+      <c r="J8" s="69" t="s">
         <v>225</v>
       </c>
       <c r="K8" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="L8" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M8" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="N8" s="14"/>
-      <c r="O8" s="80" t="s">
+      <c r="L8" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M8" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="N8" s="86"/>
+      <c r="O8" s="79" t="s">
         <v>247</v>
       </c>
-      <c r="P8" s="80">
+      <c r="P8" s="79">
         <v>9</v>
       </c>
     </row>
@@ -8265,7 +8280,7 @@
       <c r="A9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="78" t="s">
+      <c r="B9" s="77" t="s">
         <v>248</v>
       </c>
       <c r="C9" s="10">
@@ -8277,7 +8292,7 @@
       <c r="E9" s="10">
         <v>9</v>
       </c>
-      <c r="F9" s="59" t="s">
+      <c r="F9" s="58" t="s">
         <v>203</v>
       </c>
       <c r="G9" s="10">
@@ -8295,17 +8310,17 @@
       <c r="K9" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="L9" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M9" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="N9" s="14"/>
-      <c r="O9" s="48" t="s">
+      <c r="L9" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M9" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="N9" s="86"/>
+      <c r="O9" s="47" t="s">
         <v>207</v>
       </c>
-      <c r="P9" s="48">
+      <c r="P9" s="47">
         <v>7</v>
       </c>
     </row>
@@ -8313,7 +8328,7 @@
       <c r="A10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="78" t="s">
+      <c r="B10" s="77" t="s">
         <v>249</v>
       </c>
       <c r="C10" s="10">
@@ -8325,13 +8340,13 @@
       <c r="E10" s="10">
         <v>7</v>
       </c>
-      <c r="F10" s="65" t="s">
+      <c r="F10" s="64" t="s">
         <v>210</v>
       </c>
       <c r="G10" s="10">
         <v>13</v>
       </c>
-      <c r="H10" s="63" t="s">
+      <c r="H10" s="62" t="s">
         <v>220</v>
       </c>
       <c r="I10" s="10">
@@ -8343,25 +8358,25 @@
       <c r="K10" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="L10" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M10" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="N10" s="14"/>
-      <c r="O10" s="52" t="s">
+      <c r="L10" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M10" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="N10" s="86"/>
+      <c r="O10" s="51" t="s">
         <v>211</v>
       </c>
-      <c r="P10" s="52">
+      <c r="P10" s="51">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="51">
+    <row r="11" spans="1:16" ht="38.25">
       <c r="A11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="78" t="s">
+      <c r="B11" s="77" t="s">
         <v>250</v>
       </c>
       <c r="C11" s="10">
@@ -8379,37 +8394,37 @@
       <c r="G11" s="10">
         <v>8</v>
       </c>
-      <c r="H11" s="55" t="s">
+      <c r="H11" s="54" t="s">
         <v>214</v>
       </c>
       <c r="I11" s="10">
         <v>10</v>
       </c>
-      <c r="J11" s="26" t="s">
+      <c r="J11" s="25" t="s">
         <v>205</v>
       </c>
       <c r="K11" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="L11" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M11" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="N11" s="14"/>
-      <c r="O11" s="54" t="s">
+      <c r="L11" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M11" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="N11" s="86"/>
+      <c r="O11" s="53" t="s">
         <v>213</v>
       </c>
-      <c r="P11" s="54">
+      <c r="P11" s="53">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="51">
+    <row r="12" spans="1:16" ht="38.25">
       <c r="A12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="78" t="s">
+      <c r="B12" s="77" t="s">
         <v>251</v>
       </c>
       <c r="C12" s="10">
@@ -8421,43 +8436,43 @@
       <c r="E12" s="10">
         <v>8</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="F12" s="25" t="s">
         <v>185</v>
       </c>
       <c r="G12" s="10">
         <v>14</v>
       </c>
-      <c r="H12" s="26" t="s">
+      <c r="H12" s="25" t="s">
         <v>184</v>
       </c>
       <c r="I12" s="10">
         <v>22</v>
       </c>
-      <c r="J12" s="66" t="s">
+      <c r="J12" s="65" t="s">
         <v>230</v>
       </c>
       <c r="K12" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="L12" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M12" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="N12" s="14"/>
-      <c r="O12" s="57" t="s">
+      <c r="L12" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M12" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="N12" s="86"/>
+      <c r="O12" s="56" t="s">
         <v>216</v>
       </c>
-      <c r="P12" s="57">
+      <c r="P12" s="56">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="51">
+    <row r="13" spans="1:16" ht="38.25">
       <c r="A13" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="78" t="s">
+      <c r="B13" s="77" t="s">
         <v>252</v>
       </c>
       <c r="C13" s="10">
@@ -8475,33 +8490,33 @@
       <c r="G13" s="10">
         <v>14</v>
       </c>
-      <c r="H13" s="55" t="s">
+      <c r="H13" s="54" t="s">
         <v>214</v>
       </c>
       <c r="I13" s="10">
         <v>19</v>
       </c>
-      <c r="J13" s="26" t="s">
+      <c r="J13" s="25" t="s">
         <v>201</v>
       </c>
       <c r="K13" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="L13" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M13" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="N13" s="14"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-    </row>
-    <row r="14" spans="1:16" ht="51">
+      <c r="L13" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M13" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="N13" s="86"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+    </row>
+    <row r="14" spans="1:16" ht="38.25">
       <c r="A14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="78" t="s">
+      <c r="B14" s="77" t="s">
         <v>253</v>
       </c>
       <c r="C14" s="10">
@@ -8513,7 +8528,7 @@
       <c r="E14" s="10">
         <v>6</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="25" t="s">
         <v>201</v>
       </c>
       <c r="G14" s="10">
@@ -8531,21 +8546,21 @@
       <c r="K14" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="L14" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M14" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="N14" s="14"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
+      <c r="L14" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M14" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="N14" s="86"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
     </row>
     <row r="15" spans="1:16" ht="38.25">
       <c r="A15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="78" t="s">
+      <c r="B15" s="77" t="s">
         <v>254</v>
       </c>
       <c r="C15" s="10">
@@ -8557,13 +8572,13 @@
       <c r="E15" s="10">
         <v>8</v>
       </c>
-      <c r="F15" s="66" t="s">
+      <c r="F15" s="65" t="s">
         <v>230</v>
       </c>
       <c r="G15" s="10">
         <v>14</v>
       </c>
-      <c r="H15" s="61" t="s">
+      <c r="H15" s="60" t="s">
         <v>199</v>
       </c>
       <c r="I15" s="10">
@@ -8575,21 +8590,21 @@
       <c r="K15" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="L15" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M15" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="N15" s="14"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
+      <c r="L15" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M15" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="N15" s="86"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
     </row>
     <row r="16" spans="1:16" ht="38.25">
       <c r="A16" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="78" t="s">
+      <c r="B16" s="77" t="s">
         <v>255</v>
       </c>
       <c r="C16" s="10">
@@ -8607,7 +8622,7 @@
       <c r="G16" s="10">
         <v>13</v>
       </c>
-      <c r="H16" s="64" t="s">
+      <c r="H16" s="63" t="s">
         <v>223</v>
       </c>
       <c r="I16" s="10">
@@ -8619,243 +8634,243 @@
       <c r="K16" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="L16" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M16" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="N16" s="14"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
+      <c r="L16" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M16" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="N16" s="86"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
     </row>
     <row r="17" spans="1:16" ht="38.25">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="81" t="s">
+      <c r="B17" s="80" t="s">
         <v>256</v>
       </c>
-      <c r="C17" s="23">
-        <v>2</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="E17" s="23">
+      <c r="C17" s="22">
+        <v>2</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="E17" s="22">
         <v>7</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="F17" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G17" s="22">
         <v>13</v>
       </c>
-      <c r="H17" s="82" t="s">
+      <c r="H17" s="81" t="s">
         <v>257</v>
       </c>
-      <c r="I17" s="23">
+      <c r="I17" s="22">
         <v>18</v>
       </c>
-      <c r="J17" s="69" t="s">
+      <c r="J17" s="68" t="s">
         <v>227</v>
       </c>
       <c r="K17" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="L17" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M17" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="N17" s="14" t="s">
+      <c r="L17" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M17" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="N17" s="86" t="s">
         <v>258</v>
       </c>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-    </row>
-    <row r="18" spans="1:16" ht="51">
-      <c r="A18" s="23" t="s">
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+    </row>
+    <row r="18" spans="1:16" ht="38.25">
+      <c r="A18" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="81" t="s">
+      <c r="B18" s="80" t="s">
         <v>259</v>
       </c>
-      <c r="C18" s="23">
-        <v>2</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="E18" s="23">
+      <c r="C18" s="22">
+        <v>2</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="E18" s="22">
         <v>9</v>
       </c>
-      <c r="F18" s="24" t="s">
+      <c r="F18" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="G18" s="23">
+      <c r="G18" s="22">
         <v>16</v>
       </c>
-      <c r="H18" s="59" t="s">
+      <c r="H18" s="58" t="s">
         <v>203</v>
       </c>
-      <c r="I18" s="23">
+      <c r="I18" s="22">
         <v>25</v>
       </c>
-      <c r="J18" s="24" t="s">
+      <c r="J18" s="23" t="s">
         <v>185</v>
       </c>
       <c r="K18" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="L18" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M18" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="N18" s="14"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
+      <c r="L18" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M18" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="N18" s="86"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
     </row>
     <row r="19" spans="1:16" ht="38.25">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="81" t="s">
+      <c r="B19" s="80" t="s">
         <v>260</v>
       </c>
-      <c r="C19" s="23">
-        <v>2</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="E19" s="23">
+      <c r="C19" s="22">
+        <v>2</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="E19" s="22">
         <v>9</v>
       </c>
-      <c r="F19" s="23" t="s">
+      <c r="F19" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="G19" s="23">
+      <c r="G19" s="22">
         <v>15</v>
       </c>
-      <c r="H19" s="23" t="s">
+      <c r="H19" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="I19" s="23">
+      <c r="I19" s="22">
         <v>22</v>
       </c>
-      <c r="J19" s="23" t="s">
+      <c r="J19" s="22" t="s">
         <v>191</v>
       </c>
       <c r="K19" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="L19" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M19" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="N19" s="14"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
+      <c r="L19" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M19" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="N19" s="86"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
     </row>
     <row r="20" spans="1:16" ht="38.25">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="81" t="s">
+      <c r="B20" s="80" t="s">
         <v>261</v>
       </c>
-      <c r="C20" s="23">
-        <v>2</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="E20" s="23">
+      <c r="C20" s="22">
+        <v>2</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="E20" s="22">
         <v>8</v>
       </c>
-      <c r="F20" s="55" t="s">
+      <c r="F20" s="54" t="s">
         <v>214</v>
       </c>
-      <c r="G20" s="23">
+      <c r="G20" s="22">
         <v>14</v>
       </c>
-      <c r="H20" s="23" t="s">
+      <c r="H20" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="I20" s="23">
+      <c r="I20" s="22">
         <v>20</v>
       </c>
-      <c r="J20" s="23" t="s">
+      <c r="J20" s="22" t="s">
         <v>215</v>
       </c>
       <c r="K20" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="L20" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M20" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="N20" s="14"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
+      <c r="L20" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M20" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="N20" s="86"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
     </row>
     <row r="21" spans="1:16" ht="38.25">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="81" t="s">
+      <c r="B21" s="80" t="s">
         <v>262</v>
       </c>
-      <c r="C21" s="23">
-        <v>2</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="E21" s="23">
+      <c r="C21" s="22">
+        <v>2</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="E21" s="22">
         <v>8</v>
       </c>
-      <c r="F21" s="23" t="s">
+      <c r="F21" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="G21" s="23">
+      <c r="G21" s="22">
         <v>15</v>
       </c>
-      <c r="H21" s="23" t="s">
+      <c r="H21" s="22" t="s">
         <v>219</v>
       </c>
-      <c r="I21" s="23">
+      <c r="I21" s="22">
         <v>21</v>
       </c>
-      <c r="J21" s="23" t="s">
+      <c r="J21" s="22" t="s">
         <v>228</v>
       </c>
       <c r="K21" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="L21" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M21" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="N21" s="14"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
+      <c r="L21" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M21" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="N21" s="86"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
     </row>
     <row r="22" spans="1:16" ht="38.25">
       <c r="A22" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="24" t="s">
         <v>264</v>
       </c>
       <c r="C22" s="10">
@@ -8867,7 +8882,7 @@
       <c r="E22" s="10">
         <v>5</v>
       </c>
-      <c r="F22" s="60" t="s">
+      <c r="F22" s="59" t="s">
         <v>218</v>
       </c>
       <c r="G22" s="10">
@@ -8885,23 +8900,23 @@
       <c r="K22" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="L22" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M22" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="N22" s="14" t="s">
+      <c r="L22" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M22" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="N22" s="86" t="s">
         <v>258</v>
       </c>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-    </row>
-    <row r="23" spans="1:16" ht="51">
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+    </row>
+    <row r="23" spans="1:16" ht="38.25">
       <c r="A23" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="24" t="s">
         <v>265</v>
       </c>
       <c r="C23" s="10">
@@ -8913,7 +8928,7 @@
       <c r="E23" s="10">
         <v>5</v>
       </c>
-      <c r="F23" s="26" t="s">
+      <c r="F23" s="25" t="s">
         <v>205</v>
       </c>
       <c r="G23" s="10">
@@ -8931,21 +8946,21 @@
       <c r="K23" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="L23" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M23" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="N23" s="14"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
+      <c r="L23" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M23" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="N23" s="86"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
     </row>
     <row r="24" spans="1:16" ht="38.25">
       <c r="A24" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="24" t="s">
         <v>266</v>
       </c>
       <c r="C24" s="10">
@@ -8957,7 +8972,7 @@
       <c r="E24" s="10">
         <v>11</v>
       </c>
-      <c r="F24" s="26" t="s">
+      <c r="F24" s="25" t="s">
         <v>183</v>
       </c>
       <c r="G24" s="10">
@@ -8969,27 +8984,27 @@
       <c r="I24" s="10">
         <v>29</v>
       </c>
-      <c r="J24" s="65" t="s">
+      <c r="J24" s="64" t="s">
         <v>210</v>
       </c>
       <c r="K24" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="L24" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M24" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="N24" s="14"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
+      <c r="L24" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M24" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="N24" s="86"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
     </row>
     <row r="25" spans="1:16" ht="38.25">
       <c r="A25" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="24" t="s">
         <v>267</v>
       </c>
       <c r="C25" s="10">
@@ -9001,13 +9016,13 @@
       <c r="E25" s="10">
         <v>11</v>
       </c>
-      <c r="F25" s="55" t="s">
+      <c r="F25" s="54" t="s">
         <v>214</v>
       </c>
       <c r="G25" s="10">
         <v>19</v>
       </c>
-      <c r="H25" s="70" t="s">
+      <c r="H25" s="69" t="s">
         <v>225</v>
       </c>
       <c r="I25" s="10">
@@ -9019,21 +9034,21 @@
       <c r="K25" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="L25" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M25" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="N25" s="14"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
+      <c r="L25" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M25" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="N25" s="86"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
     </row>
     <row r="26" spans="1:16" ht="38.25">
       <c r="A26" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="24" t="s">
         <v>268</v>
       </c>
       <c r="C26" s="10">
@@ -9045,13 +9060,13 @@
       <c r="E26" s="10">
         <v>10</v>
       </c>
-      <c r="F26" s="61" t="s">
+      <c r="F26" s="60" t="s">
         <v>199</v>
       </c>
       <c r="G26" s="10">
         <v>18</v>
       </c>
-      <c r="H26" s="82" t="s">
+      <c r="H26" s="81" t="s">
         <v>257</v>
       </c>
       <c r="I26" s="10">
@@ -9063,21 +9078,21 @@
       <c r="K26" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="L26" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M26" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="N26" s="14"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-    </row>
-    <row r="27" spans="1:16" ht="51">
+      <c r="L26" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M26" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="N26" s="86"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+    </row>
+    <row r="27" spans="1:16" ht="38.25">
       <c r="A27" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="24" t="s">
         <v>269</v>
       </c>
       <c r="C27" s="10">
@@ -9089,39 +9104,39 @@
       <c r="E27" s="10">
         <v>7</v>
       </c>
-      <c r="F27" s="70" t="s">
+      <c r="F27" s="69" t="s">
         <v>225</v>
       </c>
       <c r="G27" s="10">
         <v>11</v>
       </c>
-      <c r="H27" s="26" t="s">
+      <c r="H27" s="25" t="s">
         <v>184</v>
       </c>
       <c r="I27" s="10">
         <v>16</v>
       </c>
-      <c r="J27" s="79" t="s">
+      <c r="J27" s="78" t="s">
         <v>226</v>
       </c>
       <c r="K27" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="L27" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M27" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="N27" s="14"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
+      <c r="L27" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M27" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="N27" s="86"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
     </row>
     <row r="28" spans="1:16" ht="38.25">
       <c r="A28" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="24" t="s">
         <v>270</v>
       </c>
       <c r="C28" s="10">
@@ -9139,33 +9154,33 @@
       <c r="G28" s="10">
         <v>13</v>
       </c>
-      <c r="H28" s="63" t="s">
+      <c r="H28" s="62" t="s">
         <v>227</v>
       </c>
       <c r="I28" s="10">
         <v>19</v>
       </c>
-      <c r="J28" s="66" t="s">
+      <c r="J28" s="65" t="s">
         <v>230</v>
       </c>
       <c r="K28" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="L28" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M28" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="N28" s="14"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-    </row>
-    <row r="29" spans="1:16" ht="51">
+      <c r="L28" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M28" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="N28" s="86"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+    </row>
+    <row r="29" spans="1:16" ht="38.25">
       <c r="A29" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="24" t="s">
         <v>271</v>
       </c>
       <c r="C29" s="10">
@@ -9177,39 +9192,39 @@
       <c r="E29" s="10">
         <v>7</v>
       </c>
-      <c r="F29" s="26" t="s">
+      <c r="F29" s="25" t="s">
         <v>185</v>
       </c>
       <c r="G29" s="10">
         <v>13</v>
       </c>
-      <c r="H29" s="26" t="s">
+      <c r="H29" s="25" t="s">
         <v>201</v>
       </c>
       <c r="I29" s="10">
         <v>18</v>
       </c>
-      <c r="J29" s="79" t="s">
+      <c r="J29" s="78" t="s">
         <v>226</v>
       </c>
       <c r="K29" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="L29" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M29" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="N29" s="14"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
+      <c r="L29" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M29" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="N29" s="86"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
     </row>
     <row r="30" spans="1:16" ht="38.25">
       <c r="A30" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="24" t="s">
         <v>272</v>
       </c>
       <c r="C30" s="10">
@@ -9221,7 +9236,7 @@
       <c r="E30" s="10">
         <v>6</v>
       </c>
-      <c r="F30" s="79" t="s">
+      <c r="F30" s="78" t="s">
         <v>226</v>
       </c>
       <c r="G30" s="10">
@@ -9239,21 +9254,21 @@
       <c r="K30" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="L30" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M30" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="N30" s="14"/>
-      <c r="O30" s="15"/>
-      <c r="P30" s="15"/>
-    </row>
-    <row r="31" spans="1:16" ht="51">
+      <c r="L30" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M30" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="N30" s="86"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+    </row>
+    <row r="31" spans="1:16" ht="38.25">
       <c r="A31" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="24" t="s">
         <v>273</v>
       </c>
       <c r="C31" s="10">
@@ -9271,7 +9286,7 @@
       <c r="G31" s="10">
         <v>11</v>
       </c>
-      <c r="H31" s="26" t="s">
+      <c r="H31" s="25" t="s">
         <v>184</v>
       </c>
       <c r="I31" s="10">
@@ -9283,21 +9298,21 @@
       <c r="K31" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="L31" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M31" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="N31" s="14"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="15"/>
+      <c r="L31" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M31" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="N31" s="86"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
     </row>
     <row r="32" spans="1:16" ht="38.25">
       <c r="A32" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="24" t="s">
         <v>274</v>
       </c>
       <c r="C32" s="10">
@@ -9327,21 +9342,21 @@
       <c r="K32" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="L32" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M32" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="N32" s="14"/>
-      <c r="O32" s="15"/>
-      <c r="P32" s="15"/>
+      <c r="L32" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M32" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="N32" s="86"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
     </row>
     <row r="33" spans="1:16" ht="38.25">
       <c r="A33" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="24" t="s">
         <v>275</v>
       </c>
       <c r="C33" s="10">
@@ -9365,293 +9380,293 @@
       <c r="I33" s="10">
         <v>13</v>
       </c>
-      <c r="J33" s="65" t="s">
+      <c r="J33" s="64" t="s">
         <v>210</v>
       </c>
       <c r="K33" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="L33" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M33" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="N33" s="14"/>
-      <c r="O33" s="15"/>
-      <c r="P33" s="15"/>
+      <c r="L33" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M33" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="N33" s="86"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="14"/>
     </row>
     <row r="34" spans="1:16" ht="38.25">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="B34" s="28" t="s">
+      <c r="B34" s="27" t="s">
         <v>276</v>
       </c>
-      <c r="C34" s="23">
-        <v>2</v>
-      </c>
-      <c r="D34" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="E34" s="23">
+      <c r="C34" s="22">
+        <v>2</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="E34" s="22">
         <v>10</v>
       </c>
-      <c r="F34" s="23" t="s">
+      <c r="F34" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="G34" s="23">
+      <c r="G34" s="22">
         <v>19</v>
       </c>
-      <c r="H34" s="69" t="s">
+      <c r="H34" s="68" t="s">
         <v>227</v>
       </c>
-      <c r="I34" s="23">
+      <c r="I34" s="22">
         <v>27</v>
       </c>
-      <c r="J34" s="23" t="s">
+      <c r="J34" s="22" t="s">
         <v>215</v>
       </c>
       <c r="K34" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="L34" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M34" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="N34" s="14" t="s">
+      <c r="L34" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M34" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="N34" s="86" t="s">
         <v>258</v>
       </c>
-      <c r="O34" s="15"/>
-      <c r="P34" s="15"/>
-    </row>
-    <row r="35" spans="1:16" ht="51">
-      <c r="A35" s="23" t="s">
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
+    </row>
+    <row r="35" spans="1:16" ht="38.25">
+      <c r="A35" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="B35" s="28" t="s">
+      <c r="B35" s="27" t="s">
         <v>277</v>
       </c>
-      <c r="C35" s="23">
-        <v>2</v>
-      </c>
-      <c r="D35" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="E35" s="23">
+      <c r="C35" s="22">
+        <v>2</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="E35" s="22">
         <v>11</v>
       </c>
-      <c r="F35" s="24" t="s">
+      <c r="F35" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="G35" s="23">
+      <c r="G35" s="22">
         <v>20</v>
       </c>
-      <c r="H35" s="73" t="s">
+      <c r="H35" s="72" t="s">
         <v>224</v>
       </c>
-      <c r="I35" s="23">
+      <c r="I35" s="22">
         <v>29</v>
       </c>
-      <c r="J35" s="23" t="s">
+      <c r="J35" s="22" t="s">
         <v>198</v>
       </c>
       <c r="K35" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="L35" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M35" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="N35" s="14"/>
-      <c r="O35" s="15"/>
-      <c r="P35" s="15"/>
-    </row>
-    <row r="36" spans="1:16" ht="51">
-      <c r="A36" s="23" t="s">
+      <c r="L35" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M35" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="N35" s="86"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="14"/>
+    </row>
+    <row r="36" spans="1:16" ht="38.25">
+      <c r="A36" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="B36" s="28" t="s">
+      <c r="B36" s="27" t="s">
         <v>278</v>
       </c>
-      <c r="C36" s="23">
-        <v>2</v>
-      </c>
-      <c r="D36" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="E36" s="23">
+      <c r="C36" s="22">
+        <v>2</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="E36" s="22">
         <v>8</v>
       </c>
-      <c r="F36" s="23" t="s">
+      <c r="F36" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="G36" s="23">
+      <c r="G36" s="22">
         <v>14</v>
       </c>
-      <c r="H36" s="24" t="s">
+      <c r="H36" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="I36" s="23">
+      <c r="I36" s="22">
         <v>20</v>
       </c>
-      <c r="J36" s="82" t="s">
+      <c r="J36" s="81" t="s">
         <v>257</v>
       </c>
       <c r="K36" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="L36" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M36" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="N36" s="14"/>
-      <c r="O36" s="15"/>
-      <c r="P36" s="15"/>
+      <c r="L36" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M36" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="N36" s="86"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
     </row>
     <row r="37" spans="1:16" ht="38.25">
-      <c r="A37" s="23" t="s">
+      <c r="A37" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="B37" s="28" t="s">
+      <c r="B37" s="27" t="s">
         <v>279</v>
       </c>
-      <c r="C37" s="23">
+      <c r="C37" s="22">
         <v>3</v>
       </c>
-      <c r="D37" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="E37" s="23">
+      <c r="D37" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="E37" s="22">
         <v>9</v>
       </c>
-      <c r="F37" s="69" t="s">
+      <c r="F37" s="68" t="s">
         <v>227</v>
       </c>
-      <c r="G37" s="23">
+      <c r="G37" s="22">
         <v>15</v>
       </c>
-      <c r="H37" s="23" t="s">
+      <c r="H37" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="I37" s="23">
+      <c r="I37" s="22">
         <v>21</v>
       </c>
-      <c r="J37" s="23" t="s">
+      <c r="J37" s="22" t="s">
         <v>195</v>
       </c>
       <c r="K37" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="L37" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M37" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="N37" s="14"/>
-      <c r="O37" s="15"/>
-      <c r="P37" s="15"/>
+      <c r="L37" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M37" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="N37" s="86"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="14"/>
     </row>
     <row r="38" spans="1:16" ht="38.25">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="B38" s="28" t="s">
+      <c r="B38" s="27" t="s">
         <v>280</v>
       </c>
-      <c r="C38" s="23">
-        <v>2</v>
-      </c>
-      <c r="D38" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="E38" s="23">
+      <c r="C38" s="22">
+        <v>2</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="E38" s="22">
         <v>8</v>
       </c>
-      <c r="F38" s="70" t="s">
+      <c r="F38" s="69" t="s">
         <v>225</v>
       </c>
-      <c r="G38" s="23">
+      <c r="G38" s="22">
         <v>14</v>
       </c>
-      <c r="H38" s="72" t="s">
+      <c r="H38" s="71" t="s">
         <v>218</v>
       </c>
-      <c r="I38" s="23">
+      <c r="I38" s="22">
         <v>19</v>
       </c>
-      <c r="J38" s="23" t="s">
+      <c r="J38" s="22" t="s">
         <v>191</v>
       </c>
       <c r="K38" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="L38" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M38" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="N38" s="14"/>
-      <c r="O38" s="15"/>
-      <c r="P38" s="15"/>
+      <c r="L38" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M38" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="N38" s="86"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
     </row>
     <row r="39" spans="1:16" ht="38.25">
-      <c r="A39" s="23" t="s">
+      <c r="A39" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="B39" s="28" t="s">
+      <c r="B39" s="27" t="s">
         <v>281</v>
       </c>
-      <c r="C39" s="23">
-        <v>2</v>
-      </c>
-      <c r="D39" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="E39" s="23">
+      <c r="C39" s="22">
+        <v>2</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="E39" s="22">
         <v>8</v>
       </c>
-      <c r="F39" s="72" t="s">
+      <c r="F39" s="71" t="s">
         <v>218</v>
       </c>
-      <c r="G39" s="23">
+      <c r="G39" s="22">
         <v>14</v>
       </c>
-      <c r="H39" s="61" t="s">
+      <c r="H39" s="60" t="s">
         <v>199</v>
       </c>
-      <c r="I39" s="23">
+      <c r="I39" s="22">
         <v>21</v>
       </c>
-      <c r="J39" s="83" t="s">
+      <c r="J39" s="82" t="s">
         <v>223</v>
       </c>
       <c r="K39" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="L39" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M39" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="N39" s="14"/>
-      <c r="O39" s="15"/>
-      <c r="P39" s="15"/>
-    </row>
-    <row r="40" spans="1:16" ht="51">
+      <c r="L39" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M39" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="N39" s="86"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
+    </row>
+    <row r="40" spans="1:16" ht="38.25">
       <c r="A40" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B40" s="84" t="s">
+      <c r="B40" s="83" t="s">
         <v>282</v>
       </c>
       <c r="C40" s="10">
@@ -9663,7 +9678,7 @@
       <c r="E40" s="10">
         <v>8</v>
       </c>
-      <c r="F40" s="26" t="s">
+      <c r="F40" s="25" t="s">
         <v>205</v>
       </c>
       <c r="G40" s="10">
@@ -9681,23 +9696,23 @@
       <c r="K40" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="L40" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M40" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="N40" s="14" t="s">
+      <c r="L40" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M40" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="N40" s="86" t="s">
         <v>258</v>
       </c>
-      <c r="O40" s="15"/>
-      <c r="P40" s="15"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="14"/>
     </row>
     <row r="41" spans="1:16" ht="38.25">
       <c r="A41" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B41" s="84" t="s">
+      <c r="B41" s="83" t="s">
         <v>283</v>
       </c>
       <c r="C41" s="10">
@@ -9715,33 +9730,33 @@
       <c r="G41" s="10">
         <v>19</v>
       </c>
-      <c r="H41" s="82" t="s">
+      <c r="H41" s="81" t="s">
         <v>257</v>
       </c>
       <c r="I41" s="10">
         <v>27</v>
       </c>
-      <c r="J41" s="64" t="s">
+      <c r="J41" s="63" t="s">
         <v>223</v>
       </c>
       <c r="K41" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="L41" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M41" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="N41" s="14"/>
-      <c r="O41" s="15"/>
-      <c r="P41" s="15"/>
+      <c r="L41" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M41" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="N41" s="86"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="14"/>
     </row>
     <row r="42" spans="1:16" ht="38.25">
       <c r="A42" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B42" s="84" t="s">
+      <c r="B42" s="83" t="s">
         <v>284</v>
       </c>
       <c r="C42" s="10">
@@ -9753,39 +9768,39 @@
       <c r="E42" s="10">
         <v>6</v>
       </c>
-      <c r="F42" s="60" t="s">
+      <c r="F42" s="59" t="s">
         <v>218</v>
       </c>
       <c r="G42" s="10">
         <v>11</v>
       </c>
-      <c r="H42" s="61" t="s">
+      <c r="H42" s="60" t="s">
         <v>199</v>
       </c>
       <c r="I42" s="10">
         <v>15</v>
       </c>
-      <c r="J42" s="26" t="s">
+      <c r="J42" s="25" t="s">
         <v>183</v>
       </c>
       <c r="K42" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="L42" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M42" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="N42" s="14"/>
-      <c r="O42" s="15"/>
-      <c r="P42" s="15"/>
+      <c r="L42" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M42" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="N42" s="86"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="14"/>
     </row>
     <row r="43" spans="1:16" ht="38.25">
       <c r="A43" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B43" s="84" t="s">
+      <c r="B43" s="83" t="s">
         <v>285</v>
       </c>
       <c r="C43" s="10">
@@ -9797,7 +9812,7 @@
       <c r="E43" s="10">
         <v>7</v>
       </c>
-      <c r="F43" s="26" t="s">
+      <c r="F43" s="25" t="s">
         <v>183</v>
       </c>
       <c r="G43" s="10">
@@ -9809,27 +9824,27 @@
       <c r="I43" s="10">
         <v>18</v>
       </c>
-      <c r="J43" s="70" t="s">
+      <c r="J43" s="69" t="s">
         <v>225</v>
       </c>
       <c r="K43" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="L43" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M43" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="N43" s="14"/>
-      <c r="O43" s="15"/>
-      <c r="P43" s="15"/>
-    </row>
-    <row r="44" spans="1:16" ht="51">
+      <c r="L43" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M43" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="N43" s="86"/>
+      <c r="O43" s="14"/>
+      <c r="P43" s="14"/>
+    </row>
+    <row r="44" spans="1:16" ht="38.25">
       <c r="A44" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B44" s="84" t="s">
+      <c r="B44" s="83" t="s">
         <v>286</v>
       </c>
       <c r="C44" s="10">
@@ -9841,7 +9856,7 @@
       <c r="E44" s="10">
         <v>7</v>
       </c>
-      <c r="F44" s="26" t="s">
+      <c r="F44" s="25" t="s">
         <v>184</v>
       </c>
       <c r="G44" s="10">
@@ -9859,21 +9874,21 @@
       <c r="K44" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="L44" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M44" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="N44" s="14"/>
-      <c r="O44" s="15"/>
-      <c r="P44" s="15"/>
+      <c r="L44" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M44" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="N44" s="86"/>
+      <c r="O44" s="14"/>
+      <c r="P44" s="14"/>
     </row>
     <row r="45" spans="1:16" ht="38.25">
       <c r="A45" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B45" s="84" t="s">
+      <c r="B45" s="83" t="s">
         <v>287</v>
       </c>
       <c r="C45" s="10">
@@ -9891,387 +9906,387 @@
       <c r="G45" s="10">
         <v>13</v>
       </c>
-      <c r="H45" s="66" t="s">
+      <c r="H45" s="65" t="s">
         <v>224</v>
       </c>
       <c r="I45" s="10">
         <v>18</v>
       </c>
-      <c r="J45" s="82" t="s">
+      <c r="J45" s="81" t="s">
         <v>257</v>
       </c>
       <c r="K45" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="L45" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M45" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="N45" s="14"/>
-      <c r="O45" s="15"/>
-      <c r="P45" s="15"/>
+      <c r="L45" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M45" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="N45" s="86"/>
+      <c r="O45" s="14"/>
+      <c r="P45" s="14"/>
     </row>
     <row r="46" spans="1:16" ht="38.25">
-      <c r="A46" s="23" t="s">
+      <c r="A46" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="B46" s="30" t="s">
+      <c r="B46" s="29" t="s">
         <v>288</v>
       </c>
-      <c r="C46" s="23">
-        <v>2</v>
-      </c>
-      <c r="D46" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="E46" s="23">
+      <c r="C46" s="22">
+        <v>2</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="E46" s="22">
         <v>6</v>
       </c>
-      <c r="F46" s="70" t="s">
+      <c r="F46" s="69" t="s">
         <v>225</v>
       </c>
-      <c r="G46" s="23">
+      <c r="G46" s="22">
         <v>10</v>
       </c>
-      <c r="H46" s="23" t="s">
+      <c r="H46" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="I46" s="23">
+      <c r="I46" s="22">
         <v>14</v>
       </c>
-      <c r="J46" s="82" t="s">
+      <c r="J46" s="81" t="s">
         <v>257</v>
       </c>
       <c r="K46" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="L46" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M46" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="N46" s="14" t="s">
+      <c r="L46" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M46" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="N46" s="86" t="s">
         <v>258</v>
       </c>
-      <c r="O46" s="15"/>
-      <c r="P46" s="15"/>
+      <c r="O46" s="14"/>
+      <c r="P46" s="14"/>
     </row>
     <row r="47" spans="1:16" ht="38.25">
-      <c r="A47" s="23" t="s">
+      <c r="A47" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="B47" s="30" t="s">
+      <c r="B47" s="29" t="s">
         <v>289</v>
       </c>
-      <c r="C47" s="23">
-        <v>2</v>
-      </c>
-      <c r="D47" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="E47" s="23">
+      <c r="C47" s="22">
+        <v>2</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="E47" s="22">
         <v>6</v>
       </c>
-      <c r="F47" s="23" t="s">
+      <c r="F47" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="G47" s="23">
+      <c r="G47" s="22">
         <v>11</v>
       </c>
-      <c r="H47" s="59" t="s">
+      <c r="H47" s="58" t="s">
         <v>203</v>
       </c>
-      <c r="I47" s="23">
+      <c r="I47" s="22">
         <v>14</v>
       </c>
-      <c r="J47" s="23" t="s">
+      <c r="J47" s="22" t="s">
         <v>219</v>
       </c>
       <c r="K47" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="L47" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M47" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="N47" s="14"/>
-      <c r="O47" s="15"/>
-      <c r="P47" s="15"/>
-    </row>
-    <row r="48" spans="1:16" ht="51">
-      <c r="A48" s="23" t="s">
+      <c r="L47" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M47" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="N47" s="86"/>
+      <c r="O47" s="14"/>
+      <c r="P47" s="14"/>
+    </row>
+    <row r="48" spans="1:16" ht="38.25">
+      <c r="A48" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="B48" s="30" t="s">
+      <c r="B48" s="29" t="s">
         <v>290</v>
       </c>
-      <c r="C48" s="23">
-        <v>2</v>
-      </c>
-      <c r="D48" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="E48" s="23">
+      <c r="C48" s="22">
+        <v>2</v>
+      </c>
+      <c r="D48" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="E48" s="22">
         <v>11</v>
       </c>
-      <c r="F48" s="69" t="s">
+      <c r="F48" s="68" t="s">
         <v>227</v>
       </c>
-      <c r="G48" s="23">
+      <c r="G48" s="22">
         <v>19</v>
       </c>
-      <c r="H48" s="23" t="s">
+      <c r="H48" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="I48" s="23">
+      <c r="I48" s="22">
         <v>28</v>
       </c>
-      <c r="J48" s="24" t="s">
+      <c r="J48" s="23" t="s">
         <v>185</v>
       </c>
       <c r="K48" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="L48" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M48" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="N48" s="14"/>
-      <c r="O48" s="15"/>
-      <c r="P48" s="15"/>
+      <c r="L48" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M48" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="N48" s="86"/>
+      <c r="O48" s="14"/>
+      <c r="P48" s="14"/>
     </row>
     <row r="49" spans="1:16" ht="38.25">
-      <c r="A49" s="23" t="s">
+      <c r="A49" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="B49" s="30" t="s">
+      <c r="B49" s="29" t="s">
         <v>291</v>
       </c>
-      <c r="C49" s="23">
-        <v>2</v>
-      </c>
-      <c r="D49" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="E49" s="23">
+      <c r="C49" s="22">
+        <v>2</v>
+      </c>
+      <c r="D49" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="E49" s="22">
         <v>7</v>
       </c>
-      <c r="F49" s="68" t="s">
+      <c r="F49" s="67" t="s">
         <v>226</v>
       </c>
-      <c r="G49" s="23">
+      <c r="G49" s="22">
         <v>13</v>
       </c>
-      <c r="H49" s="23" t="s">
+      <c r="H49" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="I49" s="23">
+      <c r="I49" s="22">
         <v>17</v>
       </c>
-      <c r="J49" s="23" t="s">
+      <c r="J49" s="22" t="s">
         <v>195</v>
       </c>
       <c r="K49" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="L49" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M49" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="N49" s="14"/>
-      <c r="O49" s="15"/>
-      <c r="P49" s="15"/>
+      <c r="L49" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M49" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="N49" s="86"/>
+      <c r="O49" s="14"/>
+      <c r="P49" s="14"/>
     </row>
     <row r="50" spans="1:16" ht="38.25">
-      <c r="A50" s="23" t="s">
+      <c r="A50" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="B50" s="30" t="s">
+      <c r="B50" s="29" t="s">
         <v>292</v>
       </c>
-      <c r="C50" s="23">
-        <v>2</v>
-      </c>
-      <c r="D50" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="E50" s="23">
+      <c r="C50" s="22">
+        <v>2</v>
+      </c>
+      <c r="D50" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="E50" s="22">
         <v>9</v>
       </c>
-      <c r="F50" s="72" t="s">
+      <c r="F50" s="71" t="s">
         <v>218</v>
       </c>
-      <c r="G50" s="23">
+      <c r="G50" s="22">
         <v>12</v>
       </c>
-      <c r="H50" s="55" t="s">
+      <c r="H50" s="54" t="s">
         <v>214</v>
       </c>
-      <c r="I50" s="23">
+      <c r="I50" s="22">
         <v>17</v>
       </c>
-      <c r="J50" s="82" t="s">
+      <c r="J50" s="81" t="s">
         <v>257</v>
       </c>
       <c r="K50" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="L50" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M50" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="N50" s="14"/>
-      <c r="O50" s="15"/>
-      <c r="P50" s="15"/>
+      <c r="L50" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M50" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="N50" s="86"/>
+      <c r="O50" s="14"/>
+      <c r="P50" s="14"/>
     </row>
     <row r="51" spans="1:16" ht="38.25">
-      <c r="A51" s="23" t="s">
+      <c r="A51" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="B51" s="30" t="s">
+      <c r="B51" s="29" t="s">
         <v>293</v>
       </c>
-      <c r="C51" s="23">
-        <v>2</v>
-      </c>
-      <c r="D51" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="E51" s="23">
+      <c r="C51" s="22">
+        <v>2</v>
+      </c>
+      <c r="D51" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="E51" s="22">
         <v>5</v>
       </c>
-      <c r="F51" s="23" t="s">
+      <c r="F51" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="G51" s="23">
+      <c r="G51" s="22">
         <v>9</v>
       </c>
-      <c r="H51" s="72" t="s">
+      <c r="H51" s="71" t="s">
         <v>218</v>
       </c>
-      <c r="I51" s="23">
+      <c r="I51" s="22">
         <v>12</v>
       </c>
-      <c r="J51" s="23" t="s">
+      <c r="J51" s="22" t="s">
         <v>196</v>
       </c>
       <c r="K51" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="L51" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M51" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="N51" s="14"/>
-      <c r="O51" s="15"/>
-      <c r="P51" s="15"/>
-    </row>
-    <row r="52" spans="1:16" ht="51">
-      <c r="A52" s="23" t="s">
+      <c r="L51" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M51" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="N51" s="86"/>
+      <c r="O51" s="14"/>
+      <c r="P51" s="14"/>
+    </row>
+    <row r="52" spans="1:16" ht="38.25">
+      <c r="A52" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="B52" s="30" t="s">
+      <c r="B52" s="29" t="s">
         <v>294</v>
       </c>
-      <c r="C52" s="23">
-        <v>2</v>
-      </c>
-      <c r="D52" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="E52" s="23">
+      <c r="C52" s="22">
+        <v>2</v>
+      </c>
+      <c r="D52" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="E52" s="22">
         <v>8</v>
       </c>
-      <c r="F52" s="23" t="s">
+      <c r="F52" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="G52" s="23">
+      <c r="G52" s="22">
         <v>14</v>
       </c>
-      <c r="H52" s="55" t="s">
+      <c r="H52" s="54" t="s">
         <v>214</v>
       </c>
-      <c r="I52" s="23">
+      <c r="I52" s="22">
         <v>20</v>
       </c>
-      <c r="J52" s="24" t="s">
+      <c r="J52" s="23" t="s">
         <v>185</v>
       </c>
       <c r="K52" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="L52" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M52" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="N52" s="14"/>
-      <c r="O52" s="15"/>
-      <c r="P52" s="15"/>
-    </row>
-    <row r="53" spans="1:16" ht="51">
-      <c r="A53" s="23" t="s">
+      <c r="L52" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M52" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="N52" s="86"/>
+      <c r="O52" s="14"/>
+      <c r="P52" s="14"/>
+    </row>
+    <row r="53" spans="1:16" ht="38.25">
+      <c r="A53" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="B53" s="30" t="s">
+      <c r="B53" s="29" t="s">
         <v>295</v>
       </c>
-      <c r="C53" s="23">
-        <v>2</v>
-      </c>
-      <c r="D53" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="E53" s="23">
+      <c r="C53" s="22">
+        <v>2</v>
+      </c>
+      <c r="D53" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="E53" s="22">
         <v>10</v>
       </c>
-      <c r="F53" s="68" t="s">
+      <c r="F53" s="67" t="s">
         <v>232</v>
       </c>
-      <c r="G53" s="23">
+      <c r="G53" s="22">
         <v>17</v>
       </c>
-      <c r="H53" s="24" t="s">
+      <c r="H53" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="I53" s="23">
+      <c r="I53" s="22">
         <v>25</v>
       </c>
-      <c r="J53" s="65" t="s">
+      <c r="J53" s="64" t="s">
         <v>210</v>
       </c>
       <c r="K53" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="L53" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M53" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="N53" s="14"/>
-      <c r="O53" s="15"/>
-      <c r="P53" s="15"/>
+      <c r="L53" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M53" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="N53" s="86"/>
+      <c r="O53" s="14"/>
+      <c r="P53" s="14"/>
     </row>
     <row r="54" spans="1:16" ht="38.25">
       <c r="A54" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B54" s="31" t="s">
+      <c r="B54" s="30" t="s">
         <v>296</v>
       </c>
       <c r="C54" s="10">
@@ -10283,7 +10298,7 @@
       <c r="E54" s="10">
         <v>10</v>
       </c>
-      <c r="F54" s="79" t="s">
+      <c r="F54" s="78" t="s">
         <v>232</v>
       </c>
       <c r="G54" s="10">
@@ -10295,29 +10310,29 @@
       <c r="I54" s="10">
         <v>26</v>
       </c>
-      <c r="J54" s="65" t="s">
+      <c r="J54" s="64" t="s">
         <v>210</v>
       </c>
       <c r="K54" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="L54" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M54" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="N54" s="14" t="s">
+      <c r="L54" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M54" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="N54" s="86" t="s">
         <v>258</v>
       </c>
-      <c r="O54" s="15"/>
-      <c r="P54" s="15"/>
+      <c r="O54" s="14"/>
+      <c r="P54" s="14"/>
     </row>
     <row r="55" spans="1:16" ht="38.25">
       <c r="A55" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B55" s="31" t="s">
+      <c r="B55" s="30" t="s">
         <v>297</v>
       </c>
       <c r="C55" s="10">
@@ -10335,7 +10350,7 @@
       <c r="G55" s="10">
         <v>16</v>
       </c>
-      <c r="H55" s="64" t="s">
+      <c r="H55" s="63" t="s">
         <v>223</v>
       </c>
       <c r="I55" s="10">
@@ -10347,21 +10362,21 @@
       <c r="K55" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="L55" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M55" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="N55" s="14"/>
-      <c r="O55" s="15"/>
-      <c r="P55" s="15"/>
+      <c r="L55" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M55" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="N55" s="86"/>
+      <c r="O55" s="14"/>
+      <c r="P55" s="14"/>
     </row>
     <row r="56" spans="1:16" ht="38.25">
       <c r="A56" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B56" s="31" t="s">
+      <c r="B56" s="30" t="s">
         <v>298</v>
       </c>
       <c r="C56" s="10">
@@ -10379,7 +10394,7 @@
       <c r="G56" s="10">
         <v>18</v>
       </c>
-      <c r="H56" s="66" t="s">
+      <c r="H56" s="65" t="s">
         <v>224</v>
       </c>
       <c r="I56" s="10">
@@ -10391,21 +10406,21 @@
       <c r="K56" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="L56" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M56" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="N56" s="14"/>
-      <c r="O56" s="15"/>
-      <c r="P56" s="15"/>
+      <c r="L56" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M56" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="N56" s="86"/>
+      <c r="O56" s="14"/>
+      <c r="P56" s="14"/>
     </row>
     <row r="57" spans="1:16" ht="38.25">
       <c r="A57" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B57" s="31" t="s">
+      <c r="B57" s="30" t="s">
         <v>299</v>
       </c>
       <c r="C57" s="10">
@@ -10435,21 +10450,21 @@
       <c r="K57" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="L57" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M57" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="N57" s="14"/>
-      <c r="O57" s="15"/>
-      <c r="P57" s="15"/>
-    </row>
-    <row r="58" spans="1:16" ht="51">
+      <c r="L57" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M57" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="N57" s="86"/>
+      <c r="O57" s="14"/>
+      <c r="P57" s="14"/>
+    </row>
+    <row r="58" spans="1:16" ht="38.25">
       <c r="A58" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B58" s="31" t="s">
+      <c r="B58" s="30" t="s">
         <v>300</v>
       </c>
       <c r="C58" s="10">
@@ -10467,7 +10482,7 @@
       <c r="G58" s="10">
         <v>14</v>
       </c>
-      <c r="H58" s="26" t="s">
+      <c r="H58" s="25" t="s">
         <v>201</v>
       </c>
       <c r="I58" s="10">
@@ -10479,21 +10494,21 @@
       <c r="K58" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="L58" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M58" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="N58" s="14"/>
-      <c r="O58" s="15"/>
-      <c r="P58" s="15"/>
-    </row>
-    <row r="59" spans="1:16" ht="51">
+      <c r="L58" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M58" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="N58" s="86"/>
+      <c r="O58" s="14"/>
+      <c r="P58" s="14"/>
+    </row>
+    <row r="59" spans="1:16" ht="38.25">
       <c r="A59" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B59" s="31" t="s">
+      <c r="B59" s="30" t="s">
         <v>301</v>
       </c>
       <c r="C59" s="10">
@@ -10511,33 +10526,33 @@
       <c r="G59" s="10">
         <v>15</v>
       </c>
-      <c r="H59" s="66" t="s">
+      <c r="H59" s="65" t="s">
         <v>224</v>
       </c>
       <c r="I59" s="10">
         <v>21</v>
       </c>
-      <c r="J59" s="26" t="s">
+      <c r="J59" s="25" t="s">
         <v>185</v>
       </c>
       <c r="K59" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="L59" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M59" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="N59" s="14"/>
-      <c r="O59" s="15"/>
-      <c r="P59" s="15"/>
-    </row>
-    <row r="60" spans="1:16" ht="51">
+      <c r="L59" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M59" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="N59" s="86"/>
+      <c r="O59" s="14"/>
+      <c r="P59" s="14"/>
+    </row>
+    <row r="60" spans="1:16" ht="38.25">
       <c r="A60" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B60" s="31" t="s">
+      <c r="B60" s="30" t="s">
         <v>302</v>
       </c>
       <c r="C60" s="10">
@@ -10549,7 +10564,7 @@
       <c r="E60" s="10">
         <v>7</v>
       </c>
-      <c r="F60" s="26" t="s">
+      <c r="F60" s="25" t="s">
         <v>205</v>
       </c>
       <c r="G60" s="10">
@@ -10561,381 +10576,381 @@
       <c r="I60" s="10">
         <v>18</v>
       </c>
-      <c r="J60" s="70" t="s">
+      <c r="J60" s="69" t="s">
         <v>225</v>
       </c>
       <c r="K60" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="L60" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M60" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="N60" s="14"/>
-      <c r="O60" s="15"/>
-      <c r="P60" s="15"/>
-    </row>
-    <row r="61" spans="1:16" ht="51">
-      <c r="A61" s="23" t="s">
+      <c r="L60" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M60" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="N60" s="86"/>
+      <c r="O60" s="14"/>
+      <c r="P60" s="14"/>
+    </row>
+    <row r="61" spans="1:16" ht="38.25">
+      <c r="A61" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="B61" s="85" t="s">
+      <c r="B61" s="84" t="s">
         <v>303</v>
       </c>
-      <c r="C61" s="23">
-        <v>2</v>
-      </c>
-      <c r="D61" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="E61" s="23">
+      <c r="C61" s="22">
+        <v>2</v>
+      </c>
+      <c r="D61" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="E61" s="22">
         <v>10</v>
       </c>
-      <c r="F61" s="65" t="s">
+      <c r="F61" s="64" t="s">
         <v>210</v>
       </c>
-      <c r="G61" s="23">
+      <c r="G61" s="22">
         <v>18</v>
       </c>
-      <c r="H61" s="23" t="s">
+      <c r="H61" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="I61" s="23">
+      <c r="I61" s="22">
         <v>26</v>
       </c>
-      <c r="J61" s="24" t="s">
+      <c r="J61" s="23" t="s">
         <v>201</v>
       </c>
       <c r="K61" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="L61" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M61" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="N61" s="14" t="s">
+      <c r="L61" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M61" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="N61" s="86" t="s">
         <v>258</v>
       </c>
-      <c r="O61" s="15"/>
-      <c r="P61" s="15"/>
+      <c r="O61" s="14"/>
+      <c r="P61" s="14"/>
     </row>
     <row r="62" spans="1:16" ht="38.25">
-      <c r="A62" s="23" t="s">
+      <c r="A62" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="B62" s="85" t="s">
+      <c r="B62" s="84" t="s">
         <v>304</v>
       </c>
-      <c r="C62" s="23">
-        <v>2</v>
-      </c>
-      <c r="D62" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="E62" s="23">
+      <c r="C62" s="22">
+        <v>2</v>
+      </c>
+      <c r="D62" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="E62" s="22">
         <v>10</v>
       </c>
-      <c r="F62" s="72" t="s">
+      <c r="F62" s="71" t="s">
         <v>218</v>
       </c>
-      <c r="G62" s="23">
+      <c r="G62" s="22">
         <v>18</v>
       </c>
-      <c r="H62" s="55" t="s">
+      <c r="H62" s="54" t="s">
         <v>214</v>
       </c>
-      <c r="I62" s="23">
+      <c r="I62" s="22">
         <v>26</v>
       </c>
-      <c r="J62" s="69" t="s">
+      <c r="J62" s="68" t="s">
         <v>227</v>
       </c>
       <c r="K62" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="L62" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M62" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="N62" s="14"/>
-      <c r="O62" s="15"/>
-      <c r="P62" s="15"/>
-    </row>
-    <row r="63" spans="1:16" ht="51">
-      <c r="A63" s="23" t="s">
+      <c r="L62" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M62" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="N62" s="86"/>
+      <c r="O62" s="14"/>
+      <c r="P62" s="14"/>
+    </row>
+    <row r="63" spans="1:16" ht="38.25">
+      <c r="A63" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="B63" s="85" t="s">
+      <c r="B63" s="84" t="s">
         <v>305</v>
       </c>
-      <c r="C63" s="23">
-        <v>2</v>
-      </c>
-      <c r="D63" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="E63" s="23">
+      <c r="C63" s="22">
+        <v>2</v>
+      </c>
+      <c r="D63" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="E63" s="22">
         <v>8</v>
       </c>
-      <c r="F63" s="24" t="s">
+      <c r="F63" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="G63" s="23">
+      <c r="G63" s="22">
         <v>13</v>
       </c>
-      <c r="H63" s="65" t="s">
+      <c r="H63" s="64" t="s">
         <v>210</v>
       </c>
-      <c r="I63" s="23">
+      <c r="I63" s="22">
         <v>19</v>
       </c>
-      <c r="J63" s="23" t="s">
+      <c r="J63" s="22" t="s">
         <v>198</v>
       </c>
       <c r="K63" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="L63" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M63" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="N63" s="14"/>
-      <c r="O63" s="15"/>
-      <c r="P63" s="15"/>
-    </row>
-    <row r="64" spans="1:16" ht="51">
-      <c r="A64" s="23" t="s">
+      <c r="L63" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M63" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="N63" s="86"/>
+      <c r="O63" s="14"/>
+      <c r="P63" s="14"/>
+    </row>
+    <row r="64" spans="1:16" ht="38.25">
+      <c r="A64" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="B64" s="85" t="s">
+      <c r="B64" s="84" t="s">
         <v>306</v>
       </c>
-      <c r="C64" s="23">
-        <v>2</v>
-      </c>
-      <c r="D64" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="E64" s="23">
+      <c r="C64" s="22">
+        <v>2</v>
+      </c>
+      <c r="D64" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="E64" s="22">
         <v>11</v>
       </c>
-      <c r="F64" s="24" t="s">
+      <c r="F64" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="G64" s="23">
+      <c r="G64" s="22">
         <v>19</v>
       </c>
-      <c r="H64" s="23" t="s">
+      <c r="H64" s="22" t="s">
         <v>219</v>
       </c>
-      <c r="I64" s="23">
+      <c r="I64" s="22">
         <v>28</v>
       </c>
-      <c r="J64" s="82" t="s">
+      <c r="J64" s="81" t="s">
         <v>257</v>
       </c>
       <c r="K64" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="L64" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M64" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="N64" s="14"/>
-      <c r="O64" s="15"/>
-      <c r="P64" s="15"/>
+      <c r="L64" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M64" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="N64" s="86"/>
+      <c r="O64" s="14"/>
+      <c r="P64" s="14"/>
     </row>
     <row r="65" spans="1:16" ht="38.25">
-      <c r="A65" s="23" t="s">
+      <c r="A65" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="B65" s="85" t="s">
+      <c r="B65" s="84" t="s">
         <v>307</v>
       </c>
-      <c r="C65" s="23">
-        <v>2</v>
-      </c>
-      <c r="D65" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="E65" s="23">
+      <c r="C65" s="22">
+        <v>2</v>
+      </c>
+      <c r="D65" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="E65" s="22">
         <v>9</v>
       </c>
-      <c r="F65" s="23" t="s">
+      <c r="F65" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="G65" s="23">
+      <c r="G65" s="22">
         <v>17</v>
       </c>
-      <c r="H65" s="23" t="s">
+      <c r="H65" s="22" t="s">
         <v>219</v>
       </c>
-      <c r="I65" s="23">
+      <c r="I65" s="22">
         <v>25</v>
       </c>
-      <c r="J65" s="65" t="s">
+      <c r="J65" s="64" t="s">
         <v>210</v>
       </c>
       <c r="K65" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="L65" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M65" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="N65" s="14"/>
-      <c r="O65" s="15"/>
-      <c r="P65" s="15"/>
+      <c r="L65" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M65" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="N65" s="86"/>
+      <c r="O65" s="14"/>
+      <c r="P65" s="14"/>
     </row>
     <row r="66" spans="1:16" ht="38.25">
-      <c r="A66" s="23" t="s">
+      <c r="A66" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="B66" s="85" t="s">
+      <c r="B66" s="84" t="s">
         <v>308</v>
       </c>
-      <c r="C66" s="23">
-        <v>2</v>
-      </c>
-      <c r="D66" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="E66" s="23">
+      <c r="C66" s="22">
+        <v>2</v>
+      </c>
+      <c r="D66" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="E66" s="22">
         <v>4</v>
       </c>
-      <c r="F66" s="23" t="s">
+      <c r="F66" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="G66" s="23">
+      <c r="G66" s="22">
         <v>6</v>
       </c>
-      <c r="H66" s="24" t="s">
+      <c r="H66" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="I66" s="23">
+      <c r="I66" s="22">
         <v>9</v>
       </c>
-      <c r="J66" s="68" t="s">
+      <c r="J66" s="67" t="s">
         <v>232</v>
       </c>
       <c r="K66" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="L66" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M66" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="N66" s="14"/>
-      <c r="O66" s="15"/>
-      <c r="P66" s="15"/>
+      <c r="L66" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M66" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="N66" s="86"/>
+      <c r="O66" s="14"/>
+      <c r="P66" s="14"/>
     </row>
     <row r="67" spans="1:16" ht="38.25">
-      <c r="A67" s="23" t="s">
+      <c r="A67" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="B67" s="85" t="s">
+      <c r="B67" s="84" t="s">
         <v>309</v>
       </c>
-      <c r="C67" s="23">
-        <v>2</v>
-      </c>
-      <c r="D67" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="E67" s="23">
+      <c r="C67" s="22">
+        <v>2</v>
+      </c>
+      <c r="D67" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="E67" s="22">
         <v>8</v>
       </c>
-      <c r="F67" s="82" t="s">
+      <c r="F67" s="81" t="s">
         <v>257</v>
       </c>
-      <c r="G67" s="23">
+      <c r="G67" s="22">
         <v>14</v>
       </c>
-      <c r="H67" s="55" t="s">
+      <c r="H67" s="54" t="s">
         <v>214</v>
       </c>
-      <c r="I67" s="23">
+      <c r="I67" s="22">
         <v>21</v>
       </c>
-      <c r="J67" s="83" t="s">
+      <c r="J67" s="82" t="s">
         <v>223</v>
       </c>
       <c r="K67" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="L67" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M67" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="N67" s="14"/>
-      <c r="O67" s="15"/>
-      <c r="P67" s="15"/>
+      <c r="L67" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M67" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="N67" s="86"/>
+      <c r="O67" s="14"/>
+      <c r="P67" s="14"/>
     </row>
     <row r="68" spans="1:16" ht="38.25">
-      <c r="A68" s="23" t="s">
+      <c r="A68" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="B68" s="85" t="s">
+      <c r="B68" s="84" t="s">
         <v>310</v>
       </c>
-      <c r="C68" s="23">
-        <v>2</v>
-      </c>
-      <c r="D68" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="E68" s="23">
+      <c r="C68" s="22">
+        <v>2</v>
+      </c>
+      <c r="D68" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="E68" s="22">
         <v>8</v>
       </c>
-      <c r="F68" s="23" t="s">
+      <c r="F68" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="G68" s="23">
+      <c r="G68" s="22">
         <v>15</v>
       </c>
-      <c r="H68" s="23" t="s">
+      <c r="H68" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="I68" s="23">
+      <c r="I68" s="22">
         <v>21</v>
       </c>
-      <c r="J68" s="23" t="s">
+      <c r="J68" s="22" t="s">
         <v>215</v>
       </c>
       <c r="K68" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="L68" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M68" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="N68" s="14"/>
-      <c r="O68" s="15"/>
-      <c r="P68" s="15"/>
+      <c r="L68" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M68" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="N68" s="86"/>
+      <c r="O68" s="14"/>
+      <c r="P68" s="14"/>
     </row>
     <row r="69" spans="1:16" ht="38.25">
       <c r="A69" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="B69" s="86" t="s">
+      <c r="B69" s="85" t="s">
         <v>311</v>
       </c>
       <c r="C69" s="10">
@@ -10944,44 +10959,44 @@
       <c r="D69" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="E69" s="35" t="s">
+      <c r="E69" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="F69" s="35" t="s">
+      <c r="F69" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="G69" s="35" t="s">
+      <c r="G69" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="H69" s="35" t="s">
+      <c r="H69" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="I69" s="35" t="s">
+      <c r="I69" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="J69" s="35" t="s">
+      <c r="J69" s="34" t="s">
         <v>161</v>
       </c>
       <c r="K69" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="L69" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M69" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="N69" s="14" t="s">
+      <c r="L69" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M69" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="N69" s="86" t="s">
         <v>258</v>
       </c>
-      <c r="O69" s="15"/>
-      <c r="P69" s="15"/>
+      <c r="O69" s="14"/>
+      <c r="P69" s="14"/>
     </row>
     <row r="70" spans="1:16" ht="38.25">
       <c r="A70" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="B70" s="86" t="s">
+      <c r="B70" s="85" t="s">
         <v>312</v>
       </c>
       <c r="C70" s="10">
@@ -10990,42 +11005,42 @@
       <c r="D70" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="E70" s="35" t="s">
+      <c r="E70" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="F70" s="35" t="s">
+      <c r="F70" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="G70" s="35" t="s">
+      <c r="G70" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="H70" s="35" t="s">
+      <c r="H70" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="I70" s="35" t="s">
+      <c r="I70" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="J70" s="35" t="s">
+      <c r="J70" s="34" t="s">
         <v>161</v>
       </c>
       <c r="K70" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="L70" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M70" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="N70" s="14"/>
-      <c r="O70" s="15"/>
-      <c r="P70" s="15"/>
+      <c r="L70" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M70" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="N70" s="86"/>
+      <c r="O70" s="14"/>
+      <c r="P70" s="14"/>
     </row>
     <row r="71" spans="1:16" ht="38.25">
       <c r="A71" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="B71" s="86" t="s">
+      <c r="B71" s="85" t="s">
         <v>313</v>
       </c>
       <c r="C71" s="10">
@@ -11034,42 +11049,42 @@
       <c r="D71" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="E71" s="35" t="s">
+      <c r="E71" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="F71" s="35" t="s">
+      <c r="F71" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="G71" s="35" t="s">
+      <c r="G71" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="H71" s="35" t="s">
+      <c r="H71" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="I71" s="35" t="s">
+      <c r="I71" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="J71" s="35" t="s">
+      <c r="J71" s="34" t="s">
         <v>161</v>
       </c>
       <c r="K71" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="L71" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M71" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="N71" s="14"/>
-      <c r="O71" s="15"/>
-      <c r="P71" s="15"/>
+      <c r="L71" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M71" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="N71" s="86"/>
+      <c r="O71" s="14"/>
+      <c r="P71" s="14"/>
     </row>
     <row r="72" spans="1:16" ht="38.25">
       <c r="A72" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="B72" s="86" t="s">
+      <c r="B72" s="85" t="s">
         <v>314</v>
       </c>
       <c r="C72" s="10">
@@ -11078,302 +11093,302 @@
       <c r="D72" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="E72" s="35" t="s">
+      <c r="E72" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="F72" s="35" t="s">
+      <c r="F72" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="G72" s="35" t="s">
+      <c r="G72" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="H72" s="35" t="s">
+      <c r="H72" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="I72" s="35" t="s">
+      <c r="I72" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="J72" s="35" t="s">
+      <c r="J72" s="34" t="s">
         <v>161</v>
       </c>
       <c r="K72" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="L72" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M72" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="N72" s="14"/>
-      <c r="O72" s="15"/>
-      <c r="P72" s="15"/>
+      <c r="L72" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M72" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="N72" s="86"/>
+      <c r="O72" s="14"/>
+      <c r="P72" s="14"/>
     </row>
     <row r="73" spans="1:16" ht="38.25">
-      <c r="A73" s="23" t="s">
+      <c r="A73" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="B73" s="36" t="s">
+      <c r="B73" s="35" t="s">
         <v>315</v>
       </c>
-      <c r="C73" s="23">
+      <c r="C73" s="22">
         <v>11</v>
       </c>
-      <c r="D73" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="E73" s="37" t="s">
+      <c r="D73" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="E73" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="F73" s="37" t="s">
+      <c r="F73" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="G73" s="37" t="s">
+      <c r="G73" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="H73" s="37" t="s">
+      <c r="H73" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="I73" s="37" t="s">
+      <c r="I73" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="J73" s="37" t="s">
+      <c r="J73" s="36" t="s">
         <v>161</v>
       </c>
       <c r="K73" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="L73" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M73" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="N73" s="14" t="s">
+      <c r="L73" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M73" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="N73" s="86" t="s">
         <v>258</v>
       </c>
-      <c r="O73" s="15"/>
-      <c r="P73" s="15"/>
+      <c r="O73" s="14"/>
+      <c r="P73" s="14"/>
     </row>
     <row r="74" spans="1:16" ht="38.25">
-      <c r="A74" s="23" t="s">
+      <c r="A74" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="B74" s="36" t="s">
+      <c r="B74" s="35" t="s">
         <v>316</v>
       </c>
-      <c r="C74" s="23">
-        <v>2</v>
-      </c>
-      <c r="D74" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="E74" s="37" t="s">
+      <c r="C74" s="22">
+        <v>2</v>
+      </c>
+      <c r="D74" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="E74" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="F74" s="37" t="s">
+      <c r="F74" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="G74" s="37" t="s">
+      <c r="G74" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="H74" s="37" t="s">
+      <c r="H74" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="I74" s="37" t="s">
+      <c r="I74" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="J74" s="37" t="s">
+      <c r="J74" s="36" t="s">
         <v>161</v>
       </c>
       <c r="K74" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="L74" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M74" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="N74" s="14"/>
-      <c r="O74" s="15"/>
-      <c r="P74" s="15"/>
+      <c r="L74" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M74" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="N74" s="86"/>
+      <c r="O74" s="14"/>
+      <c r="P74" s="14"/>
     </row>
     <row r="75" spans="1:16" ht="38.25">
-      <c r="A75" s="23" t="s">
+      <c r="A75" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="B75" s="36" t="s">
+      <c r="B75" s="35" t="s">
         <v>317</v>
       </c>
-      <c r="C75" s="23">
+      <c r="C75" s="22">
         <v>11</v>
       </c>
-      <c r="D75" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="E75" s="37" t="s">
+      <c r="D75" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="E75" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="F75" s="37" t="s">
+      <c r="F75" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="G75" s="37" t="s">
+      <c r="G75" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="H75" s="37" t="s">
+      <c r="H75" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="I75" s="37" t="s">
+      <c r="I75" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="J75" s="37" t="s">
+      <c r="J75" s="36" t="s">
         <v>161</v>
       </c>
       <c r="K75" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="L75" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M75" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="N75" s="14"/>
-      <c r="O75" s="15"/>
-      <c r="P75" s="15"/>
+      <c r="L75" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M75" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="N75" s="86"/>
+      <c r="O75" s="14"/>
+      <c r="P75" s="14"/>
     </row>
     <row r="76" spans="1:16" ht="38.25">
-      <c r="A76" s="23" t="s">
+      <c r="A76" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="B76" s="36" t="s">
+      <c r="B76" s="35" t="s">
         <v>318</v>
       </c>
-      <c r="C76" s="23">
+      <c r="C76" s="22">
         <v>14</v>
       </c>
-      <c r="D76" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="E76" s="37" t="s">
+      <c r="D76" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="E76" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="F76" s="37" t="s">
+      <c r="F76" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="G76" s="37" t="s">
+      <c r="G76" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="H76" s="37" t="s">
+      <c r="H76" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="I76" s="37" t="s">
+      <c r="I76" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="J76" s="37" t="s">
+      <c r="J76" s="36" t="s">
         <v>161</v>
       </c>
       <c r="K76" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="L76" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M76" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="N76" s="14"/>
-      <c r="O76" s="15"/>
-      <c r="P76" s="15"/>
+      <c r="L76" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M76" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="N76" s="86"/>
+      <c r="O76" s="14"/>
+      <c r="P76" s="14"/>
     </row>
     <row r="77" spans="1:16" ht="38.25">
-      <c r="A77" s="23" t="s">
+      <c r="A77" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="B77" s="36" t="s">
+      <c r="B77" s="35" t="s">
         <v>319</v>
       </c>
-      <c r="C77" s="23">
+      <c r="C77" s="22">
         <v>14</v>
       </c>
-      <c r="D77" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="E77" s="37" t="s">
+      <c r="D77" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="E77" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="F77" s="37" t="s">
+      <c r="F77" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="G77" s="37" t="s">
+      <c r="G77" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="H77" s="37" t="s">
+      <c r="H77" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="I77" s="37" t="s">
+      <c r="I77" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="J77" s="37" t="s">
+      <c r="J77" s="36" t="s">
         <v>161</v>
       </c>
       <c r="K77" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="L77" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M77" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="N77" s="14"/>
-      <c r="O77" s="15"/>
-      <c r="P77" s="15"/>
+      <c r="L77" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M77" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="N77" s="86"/>
+      <c r="O77" s="14"/>
+      <c r="P77" s="14"/>
     </row>
     <row r="78" spans="1:16" ht="38.25">
-      <c r="A78" s="23" t="s">
+      <c r="A78" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="B78" s="36" t="s">
+      <c r="B78" s="35" t="s">
         <v>320</v>
       </c>
-      <c r="C78" s="23">
+      <c r="C78" s="22">
         <v>11</v>
       </c>
-      <c r="D78" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="E78" s="37" t="s">
+      <c r="D78" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="E78" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="F78" s="37" t="s">
+      <c r="F78" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="G78" s="37" t="s">
+      <c r="G78" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="H78" s="37" t="s">
+      <c r="H78" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="I78" s="37" t="s">
+      <c r="I78" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="J78" s="37" t="s">
+      <c r="J78" s="36" t="s">
         <v>161</v>
       </c>
       <c r="K78" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="L78" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M78" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="N78" s="14"/>
-      <c r="O78" s="15"/>
-      <c r="P78" s="15"/>
+      <c r="L78" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M78" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="N78" s="86"/>
+      <c r="O78" s="14"/>
+      <c r="P78" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -11390,5 +11405,6 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/迷彩进度.xlsx
+++ b/迷彩进度.xlsx
@@ -3480,9 +3480,6 @@
     <xf numFmtId="0" fontId="8" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3491,6 +3488,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3774,8 +3774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3876,13 +3876,13 @@
       <c r="K2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="87" t="s">
+      <c r="L2" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="88" t="s">
+      <c r="M2" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="86" t="s">
+      <c r="N2" s="89" t="s">
         <v>21</v>
       </c>
       <c r="O2" s="14"/>
@@ -3921,13 +3921,13 @@
       <c r="K3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="88" t="s">
+      <c r="L3" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="88" t="s">
+      <c r="M3" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="86"/>
+      <c r="N3" s="89"/>
       <c r="O3" s="14"/>
     </row>
     <row r="4" spans="1:15" ht="50.25" customHeight="1">
@@ -3964,13 +3964,13 @@
       <c r="K4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="88" t="s">
+      <c r="L4" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="89" t="s">
+      <c r="M4" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="86"/>
+      <c r="N4" s="89"/>
       <c r="O4" s="14"/>
     </row>
     <row r="5" spans="1:15" ht="25.5">
@@ -4010,10 +4010,10 @@
       <c r="L5" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="M5" s="89" t="s">
+      <c r="M5" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="N5" s="86"/>
+      <c r="N5" s="89"/>
       <c r="O5" s="14"/>
     </row>
     <row r="6" spans="1:15" ht="25.5">
@@ -4050,13 +4050,13 @@
       <c r="K6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="89" t="s">
+      <c r="L6" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="M6" s="87" t="s">
+      <c r="M6" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="N6" s="86"/>
+      <c r="N6" s="89"/>
       <c r="O6" s="14"/>
     </row>
     <row r="7" spans="1:15" ht="25.5">
@@ -4099,7 +4099,7 @@
       <c r="M7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="86"/>
+      <c r="N7" s="89"/>
       <c r="O7" s="14"/>
     </row>
     <row r="8" spans="1:15" ht="25.5">
@@ -4136,13 +4136,13 @@
       <c r="K8" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="L8" s="88" t="s">
+      <c r="L8" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="M8" s="88" t="s">
+      <c r="M8" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="N8" s="86"/>
+      <c r="N8" s="89"/>
       <c r="O8" s="14"/>
     </row>
     <row r="9" spans="1:15" ht="25.5">
@@ -4179,13 +4179,13 @@
       <c r="K9" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="L9" s="87" t="s">
+      <c r="L9" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="M9" s="87" t="s">
+      <c r="M9" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="N9" s="86"/>
+      <c r="N9" s="89"/>
       <c r="O9" s="14"/>
     </row>
     <row r="10" spans="1:15" ht="25.5">
@@ -4225,10 +4225,10 @@
       <c r="L10" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="M10" s="88" t="s">
+      <c r="M10" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="N10" s="86" t="s">
+      <c r="N10" s="89" t="s">
         <v>21</v>
       </c>
       <c r="O10" s="14"/>
@@ -4270,10 +4270,10 @@
       <c r="L11" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="M11" s="89" t="s">
+      <c r="M11" s="88" t="s">
         <v>54</v>
       </c>
-      <c r="N11" s="86"/>
+      <c r="N11" s="89"/>
       <c r="O11" s="14"/>
     </row>
     <row r="12" spans="1:15" ht="25.5">
@@ -4313,10 +4313,10 @@
       <c r="L12" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="M12" s="88" t="s">
+      <c r="M12" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="N12" s="86"/>
+      <c r="N12" s="89"/>
       <c r="O12" s="14"/>
     </row>
     <row r="13" spans="1:15" ht="38.25">
@@ -4356,10 +4356,10 @@
       <c r="L13" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="M13" s="87" t="s">
+      <c r="M13" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="N13" s="86" t="s">
+      <c r="N13" s="89" t="s">
         <v>21</v>
       </c>
       <c r="O13" s="14"/>
@@ -4401,10 +4401,10 @@
       <c r="L14" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="M14" s="89" t="s">
+      <c r="M14" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="N14" s="86"/>
+      <c r="N14" s="89"/>
       <c r="O14" s="14"/>
     </row>
     <row r="15" spans="1:15" ht="38.25">
@@ -4444,10 +4444,10 @@
       <c r="L15" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="M15" s="89" t="s">
+      <c r="M15" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="N15" s="86"/>
+      <c r="N15" s="89"/>
       <c r="O15" s="14"/>
     </row>
     <row r="16" spans="1:15" ht="38.25">
@@ -4487,10 +4487,10 @@
       <c r="L16" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="M16" s="88" t="s">
+      <c r="M16" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="N16" s="86"/>
+      <c r="N16" s="89"/>
       <c r="O16" s="14"/>
     </row>
     <row r="17" spans="1:15" ht="38.25">
@@ -4530,10 +4530,10 @@
       <c r="L17" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="M17" s="87" t="s">
+      <c r="M17" s="86" t="s">
         <v>73</v>
       </c>
-      <c r="N17" s="86"/>
+      <c r="N17" s="89"/>
       <c r="O17" s="14"/>
     </row>
     <row r="18" spans="1:15" ht="38.25">
@@ -4573,10 +4573,10 @@
       <c r="L18" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="M18" s="16" t="s">
+      <c r="M18" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="N18" s="86"/>
+      <c r="N18" s="89"/>
       <c r="O18" s="14"/>
     </row>
     <row r="19" spans="1:15" ht="38.25">
@@ -4616,10 +4616,10 @@
       <c r="L19" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="M19" s="89" t="s">
+      <c r="M19" s="88" t="s">
         <v>80</v>
       </c>
-      <c r="N19" s="86"/>
+      <c r="N19" s="89"/>
       <c r="O19" s="14"/>
     </row>
     <row r="20" spans="1:15" ht="38.25">
@@ -4659,10 +4659,10 @@
       <c r="L20" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="M20" s="89" t="s">
+      <c r="M20" s="88" t="s">
         <v>84</v>
       </c>
-      <c r="N20" s="86"/>
+      <c r="N20" s="89"/>
       <c r="O20" s="14"/>
     </row>
     <row r="21" spans="1:15" ht="25.5">
@@ -4702,10 +4702,10 @@
       <c r="L21" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="M21" s="89" t="s">
+      <c r="M21" s="88" t="s">
         <v>92</v>
       </c>
-      <c r="N21" s="86" t="s">
+      <c r="N21" s="89" t="s">
         <v>21</v>
       </c>
       <c r="O21" s="14"/>
@@ -4750,7 +4750,7 @@
       <c r="M22" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="N22" s="86"/>
+      <c r="N22" s="89"/>
       <c r="O22" s="14"/>
     </row>
     <row r="23" spans="1:15" ht="25.5">
@@ -4793,7 +4793,7 @@
       <c r="M23" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="N23" s="86"/>
+      <c r="N23" s="89"/>
       <c r="O23" s="14"/>
     </row>
     <row r="24" spans="1:15" ht="25.5">
@@ -4833,10 +4833,10 @@
       <c r="L24" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="M24" s="18" t="s">
+      <c r="M24" s="86" t="s">
         <v>104</v>
       </c>
-      <c r="N24" s="86" t="s">
+      <c r="N24" s="89" t="s">
         <v>21</v>
       </c>
       <c r="O24" s="14"/>
@@ -4881,7 +4881,7 @@
       <c r="M25" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="N25" s="86"/>
+      <c r="N25" s="89"/>
       <c r="O25" s="14"/>
     </row>
     <row r="26" spans="1:15" ht="25.5">
@@ -4924,7 +4924,7 @@
       <c r="M26" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="N26" s="86"/>
+      <c r="N26" s="89"/>
       <c r="O26" s="14"/>
     </row>
     <row r="27" spans="1:15" ht="25.5">
@@ -4967,7 +4967,7 @@
       <c r="M27" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="N27" s="86"/>
+      <c r="N27" s="89"/>
       <c r="O27" s="14"/>
     </row>
     <row r="28" spans="1:15" ht="25.5">
@@ -5007,10 +5007,10 @@
       <c r="L28" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="M28" s="16" t="s">
+      <c r="M28" s="88" t="s">
         <v>96</v>
       </c>
-      <c r="N28" s="86"/>
+      <c r="N28" s="89"/>
       <c r="O28" s="14"/>
     </row>
     <row r="29" spans="1:15" ht="25.5">
@@ -5050,10 +5050,10 @@
       <c r="L29" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="M29" s="16" t="s">
+      <c r="M29" s="88" t="s">
         <v>118</v>
       </c>
-      <c r="N29" s="86"/>
+      <c r="N29" s="89"/>
       <c r="O29" s="14"/>
     </row>
     <row r="30" spans="1:15" ht="25.5">
@@ -5096,7 +5096,7 @@
       <c r="M30" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="N30" s="86" t="s">
+      <c r="N30" s="89" t="s">
         <v>21</v>
       </c>
       <c r="O30" s="14"/>
@@ -5141,7 +5141,7 @@
       <c r="M31" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="N31" s="86"/>
+      <c r="N31" s="89"/>
       <c r="O31" s="14"/>
     </row>
     <row r="32" spans="1:15">
@@ -5184,7 +5184,7 @@
       <c r="M32" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="N32" s="86"/>
+      <c r="N32" s="89"/>
       <c r="O32" s="14"/>
     </row>
     <row r="33" spans="1:15">
@@ -5227,7 +5227,7 @@
       <c r="M33" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="N33" s="86"/>
+      <c r="N33" s="89"/>
       <c r="O33" s="14"/>
     </row>
     <row r="34" spans="1:15" ht="25.5">
@@ -5270,7 +5270,7 @@
       <c r="M34" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="N34" s="86" t="s">
+      <c r="N34" s="89" t="s">
         <v>21</v>
       </c>
       <c r="O34" s="14"/>
@@ -5315,7 +5315,7 @@
       <c r="M35" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="N35" s="86"/>
+      <c r="N35" s="89"/>
       <c r="O35" s="14"/>
     </row>
     <row r="36" spans="1:15">
@@ -5358,7 +5358,7 @@
       <c r="M36" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="N36" s="86"/>
+      <c r="N36" s="89"/>
       <c r="O36" s="14"/>
     </row>
     <row r="37" spans="1:15">
@@ -5401,7 +5401,7 @@
       <c r="M37" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="N37" s="86"/>
+      <c r="N37" s="89"/>
       <c r="O37" s="14"/>
     </row>
     <row r="38" spans="1:15">
@@ -5444,7 +5444,7 @@
       <c r="M38" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="N38" s="86" t="s">
+      <c r="N38" s="89" t="s">
         <v>21</v>
       </c>
       <c r="O38" s="14"/>
@@ -5489,7 +5489,7 @@
       <c r="M39" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="N39" s="86"/>
+      <c r="N39" s="89"/>
       <c r="O39" s="14"/>
     </row>
     <row r="40" spans="1:15" ht="25.5">
@@ -5532,7 +5532,7 @@
       <c r="M40" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="N40" s="86"/>
+      <c r="N40" s="89"/>
       <c r="O40" s="14"/>
     </row>
     <row r="41" spans="1:15" ht="25.5">
@@ -5575,7 +5575,7 @@
       <c r="M41" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="N41" s="86"/>
+      <c r="N41" s="89"/>
       <c r="O41" s="14"/>
     </row>
     <row r="42" spans="1:15" ht="18.75" customHeight="1">
@@ -5618,7 +5618,7 @@
       <c r="M42" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="N42" s="86" t="s">
+      <c r="N42" s="89" t="s">
         <v>21</v>
       </c>
       <c r="O42" s="14"/>
@@ -5663,7 +5663,7 @@
       <c r="M43" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="N43" s="86"/>
+      <c r="N43" s="89"/>
       <c r="O43" s="14"/>
     </row>
     <row r="44" spans="1:15" ht="25.5">
@@ -5706,7 +5706,7 @@
       <c r="M44" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="N44" s="86" t="s">
+      <c r="N44" s="89" t="s">
         <v>21</v>
       </c>
       <c r="O44" s="14"/>
@@ -5751,22 +5751,22 @@
       <c r="M45" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="N45" s="86"/>
+      <c r="N45" s="89"/>
       <c r="O45" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="N30:N33"/>
+    <mergeCell ref="N34:N37"/>
+    <mergeCell ref="N38:N41"/>
+    <mergeCell ref="N42:N43"/>
+    <mergeCell ref="N44:N45"/>
     <mergeCell ref="N24:N29"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="N4:N9"/>
     <mergeCell ref="N10:N12"/>
     <mergeCell ref="N13:N20"/>
     <mergeCell ref="N21:N23"/>
-    <mergeCell ref="N30:N33"/>
-    <mergeCell ref="N34:N37"/>
-    <mergeCell ref="N38:N41"/>
-    <mergeCell ref="N42:N43"/>
-    <mergeCell ref="N44:N45"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5887,7 +5887,7 @@
       <c r="M2" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="N2" s="86" t="s">
+      <c r="N2" s="89" t="s">
         <v>189</v>
       </c>
       <c r="O2" s="39" t="s">
@@ -5937,7 +5937,7 @@
       <c r="M3" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="N3" s="86"/>
+      <c r="N3" s="89"/>
       <c r="O3" s="40" t="s">
         <v>193</v>
       </c>
@@ -5985,7 +5985,7 @@
       <c r="M4" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="N4" s="86"/>
+      <c r="N4" s="89"/>
       <c r="O4" s="41" t="s">
         <v>197</v>
       </c>
@@ -6033,7 +6033,7 @@
       <c r="M5" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="N5" s="86"/>
+      <c r="N5" s="89"/>
       <c r="O5" s="43" t="s">
         <v>200</v>
       </c>
@@ -6081,7 +6081,7 @@
       <c r="M6" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="N6" s="86"/>
+      <c r="N6" s="89"/>
       <c r="O6" s="44" t="s">
         <v>202</v>
       </c>
@@ -6129,7 +6129,7 @@
       <c r="M7" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="N7" s="86"/>
+      <c r="N7" s="89"/>
       <c r="O7" s="46" t="s">
         <v>204</v>
       </c>
@@ -6177,7 +6177,7 @@
       <c r="M8" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="N8" s="86"/>
+      <c r="N8" s="89"/>
       <c r="O8" s="47" t="s">
         <v>207</v>
       </c>
@@ -6225,7 +6225,7 @@
       <c r="M9" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="N9" s="86"/>
+      <c r="N9" s="89"/>
       <c r="O9" s="51" t="s">
         <v>211</v>
       </c>
@@ -6273,7 +6273,7 @@
       <c r="M10" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="N10" s="86" t="s">
+      <c r="N10" s="89" t="s">
         <v>189</v>
       </c>
       <c r="O10" s="53" t="s">
@@ -6323,7 +6323,7 @@
       <c r="M11" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="N11" s="86"/>
+      <c r="N11" s="89"/>
       <c r="O11" s="56" t="s">
         <v>216</v>
       </c>
@@ -6371,7 +6371,7 @@
       <c r="M12" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="N12" s="86"/>
+      <c r="N12" s="89"/>
       <c r="O12" s="14"/>
       <c r="P12" s="14"/>
     </row>
@@ -6415,7 +6415,7 @@
       <c r="M13" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="N13" s="86" t="s">
+      <c r="N13" s="89" t="s">
         <v>189</v>
       </c>
       <c r="O13" s="14"/>
@@ -6461,7 +6461,7 @@
       <c r="M14" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="N14" s="86"/>
+      <c r="N14" s="89"/>
       <c r="O14" s="61"/>
       <c r="P14" s="22"/>
     </row>
@@ -6505,7 +6505,7 @@
       <c r="M15" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="N15" s="86"/>
+      <c r="N15" s="89"/>
       <c r="O15" s="61"/>
       <c r="P15" s="22"/>
     </row>
@@ -6549,7 +6549,7 @@
       <c r="M16" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="N16" s="86"/>
+      <c r="N16" s="89"/>
       <c r="O16" s="6"/>
       <c r="P16" s="22"/>
     </row>
@@ -6593,7 +6593,7 @@
       <c r="M17" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="N17" s="86"/>
+      <c r="N17" s="89"/>
       <c r="O17" s="6"/>
       <c r="P17" s="22"/>
     </row>
@@ -6637,7 +6637,7 @@
       <c r="M18" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="N18" s="86"/>
+      <c r="N18" s="89"/>
       <c r="O18" s="14"/>
       <c r="P18" s="22"/>
     </row>
@@ -6681,7 +6681,7 @@
       <c r="M19" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="N19" s="86"/>
+      <c r="N19" s="89"/>
       <c r="O19" s="14"/>
       <c r="P19" s="22"/>
     </row>
@@ -6725,7 +6725,7 @@
       <c r="M20" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="N20" s="86"/>
+      <c r="N20" s="89"/>
       <c r="O20" s="14"/>
       <c r="P20" s="22"/>
     </row>
@@ -6769,7 +6769,7 @@
       <c r="M21" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="N21" s="86" t="s">
+      <c r="N21" s="89" t="s">
         <v>189</v>
       </c>
       <c r="O21" s="14"/>
@@ -6815,7 +6815,7 @@
       <c r="M22" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="N22" s="86"/>
+      <c r="N22" s="89"/>
       <c r="O22" s="14"/>
       <c r="P22" s="22"/>
     </row>
@@ -6859,7 +6859,7 @@
       <c r="M23" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="N23" s="86"/>
+      <c r="N23" s="89"/>
       <c r="O23" s="14"/>
       <c r="P23" s="22"/>
     </row>
@@ -6903,7 +6903,7 @@
       <c r="M24" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="N24" s="86" t="s">
+      <c r="N24" s="89" t="s">
         <v>189</v>
       </c>
       <c r="O24" s="14"/>
@@ -6949,7 +6949,7 @@
       <c r="M25" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="N25" s="86"/>
+      <c r="N25" s="89"/>
       <c r="O25" s="14"/>
       <c r="P25" s="22"/>
     </row>
@@ -6993,7 +6993,7 @@
       <c r="M26" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="N26" s="86"/>
+      <c r="N26" s="89"/>
       <c r="O26" s="14"/>
       <c r="P26" s="22"/>
     </row>
@@ -7037,7 +7037,7 @@
       <c r="M27" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="N27" s="86"/>
+      <c r="N27" s="89"/>
       <c r="O27" s="14"/>
       <c r="P27" s="22"/>
     </row>
@@ -7081,7 +7081,7 @@
       <c r="M28" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="N28" s="86"/>
+      <c r="N28" s="89"/>
       <c r="O28" s="14"/>
       <c r="P28" s="22"/>
     </row>
@@ -7125,7 +7125,7 @@
       <c r="M29" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="N29" s="86"/>
+      <c r="N29" s="89"/>
       <c r="O29" s="14"/>
       <c r="P29" s="22"/>
     </row>
@@ -7169,7 +7169,7 @@
       <c r="M30" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="N30" s="86" t="s">
+      <c r="N30" s="89" t="s">
         <v>189</v>
       </c>
       <c r="O30" s="14"/>
@@ -7215,7 +7215,7 @@
       <c r="M31" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="N31" s="86"/>
+      <c r="N31" s="89"/>
       <c r="O31" s="14"/>
       <c r="P31" s="22"/>
     </row>
@@ -7259,7 +7259,7 @@
       <c r="M32" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="N32" s="86"/>
+      <c r="N32" s="89"/>
       <c r="O32" s="14"/>
       <c r="P32" s="22"/>
     </row>
@@ -7303,7 +7303,7 @@
       <c r="M33" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="N33" s="86"/>
+      <c r="N33" s="89"/>
       <c r="O33" s="14"/>
       <c r="P33" s="22"/>
     </row>
@@ -7347,7 +7347,7 @@
       <c r="M34" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="N34" s="86" t="s">
+      <c r="N34" s="89" t="s">
         <v>189</v>
       </c>
       <c r="O34" s="14"/>
@@ -7393,7 +7393,7 @@
       <c r="M35" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="N35" s="86"/>
+      <c r="N35" s="89"/>
       <c r="O35" s="14"/>
       <c r="P35" s="22"/>
     </row>
@@ -7437,7 +7437,7 @@
       <c r="M36" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="N36" s="86"/>
+      <c r="N36" s="89"/>
       <c r="O36" s="14"/>
       <c r="P36" s="22"/>
     </row>
@@ -7481,7 +7481,7 @@
       <c r="M37" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="N37" s="86"/>
+      <c r="N37" s="89"/>
       <c r="O37" s="14"/>
       <c r="P37" s="22"/>
     </row>
@@ -7525,7 +7525,7 @@
       <c r="M38" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="N38" s="86" t="s">
+      <c r="N38" s="89" t="s">
         <v>189</v>
       </c>
       <c r="O38" s="14"/>
@@ -7571,7 +7571,7 @@
       <c r="M39" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="N39" s="86"/>
+      <c r="N39" s="89"/>
       <c r="O39" s="14"/>
       <c r="P39" s="22"/>
     </row>
@@ -7615,7 +7615,7 @@
       <c r="M40" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="N40" s="86"/>
+      <c r="N40" s="89"/>
       <c r="O40" s="14"/>
       <c r="P40" s="22"/>
     </row>
@@ -7659,7 +7659,7 @@
       <c r="M41" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="N41" s="86"/>
+      <c r="N41" s="89"/>
       <c r="O41" s="14"/>
       <c r="P41" s="22"/>
     </row>
@@ -7703,7 +7703,7 @@
       <c r="M42" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="N42" s="86" t="s">
+      <c r="N42" s="89" t="s">
         <v>189</v>
       </c>
       <c r="O42" s="14"/>
@@ -7749,7 +7749,7 @@
       <c r="M43" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="N43" s="86"/>
+      <c r="N43" s="89"/>
       <c r="O43" s="14"/>
       <c r="P43" s="22"/>
     </row>
@@ -7793,7 +7793,7 @@
       <c r="M44" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="N44" s="86" t="s">
+      <c r="N44" s="89" t="s">
         <v>189</v>
       </c>
       <c r="O44" s="14"/>
@@ -7839,23 +7839,23 @@
       <c r="M45" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="N45" s="86"/>
+      <c r="N45" s="89"/>
       <c r="O45" s="14"/>
       <c r="P45" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="N30:N33"/>
+    <mergeCell ref="N34:N37"/>
+    <mergeCell ref="N38:N41"/>
+    <mergeCell ref="N42:N43"/>
+    <mergeCell ref="N44:N45"/>
     <mergeCell ref="N24:N29"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="N4:N9"/>
     <mergeCell ref="N10:N12"/>
     <mergeCell ref="N13:N20"/>
     <mergeCell ref="N21:N23"/>
-    <mergeCell ref="N30:N33"/>
-    <mergeCell ref="N34:N37"/>
-    <mergeCell ref="N38:N41"/>
-    <mergeCell ref="N42:N43"/>
-    <mergeCell ref="N44:N45"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7978,7 +7978,7 @@
       <c r="M2" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="N2" s="86" t="s">
+      <c r="N2" s="89" t="s">
         <v>240</v>
       </c>
       <c r="O2" s="39" t="s">
@@ -8028,7 +8028,7 @@
       <c r="M3" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="N3" s="86"/>
+      <c r="N3" s="89"/>
       <c r="O3" s="40" t="s">
         <v>193</v>
       </c>
@@ -8076,7 +8076,7 @@
       <c r="M4" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="N4" s="86"/>
+      <c r="N4" s="89"/>
       <c r="O4" s="41" t="s">
         <v>197</v>
       </c>
@@ -8124,7 +8124,7 @@
       <c r="M5" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="N5" s="86"/>
+      <c r="N5" s="89"/>
       <c r="O5" s="43" t="s">
         <v>200</v>
       </c>
@@ -8172,7 +8172,7 @@
       <c r="M6" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="N6" s="86"/>
+      <c r="N6" s="89"/>
       <c r="O6" s="44" t="s">
         <v>202</v>
       </c>
@@ -8220,7 +8220,7 @@
       <c r="M7" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="N7" s="86"/>
+      <c r="N7" s="89"/>
       <c r="O7" s="46" t="s">
         <v>204</v>
       </c>
@@ -8268,7 +8268,7 @@
       <c r="M8" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="N8" s="86"/>
+      <c r="N8" s="89"/>
       <c r="O8" s="79" t="s">
         <v>247</v>
       </c>
@@ -8316,7 +8316,7 @@
       <c r="M9" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="N9" s="86"/>
+      <c r="N9" s="89"/>
       <c r="O9" s="47" t="s">
         <v>207</v>
       </c>
@@ -8364,7 +8364,7 @@
       <c r="M10" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="N10" s="86"/>
+      <c r="N10" s="89"/>
       <c r="O10" s="51" t="s">
         <v>211</v>
       </c>
@@ -8412,7 +8412,7 @@
       <c r="M11" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="N11" s="86"/>
+      <c r="N11" s="89"/>
       <c r="O11" s="53" t="s">
         <v>213</v>
       </c>
@@ -8460,7 +8460,7 @@
       <c r="M12" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="N12" s="86"/>
+      <c r="N12" s="89"/>
       <c r="O12" s="56" t="s">
         <v>216</v>
       </c>
@@ -8508,7 +8508,7 @@
       <c r="M13" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="N13" s="86"/>
+      <c r="N13" s="89"/>
       <c r="O13" s="14"/>
       <c r="P13" s="14"/>
     </row>
@@ -8552,7 +8552,7 @@
       <c r="M14" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="N14" s="86"/>
+      <c r="N14" s="89"/>
       <c r="O14" s="14"/>
       <c r="P14" s="14"/>
     </row>
@@ -8596,7 +8596,7 @@
       <c r="M15" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="N15" s="86"/>
+      <c r="N15" s="89"/>
       <c r="O15" s="14"/>
       <c r="P15" s="14"/>
     </row>
@@ -8640,7 +8640,7 @@
       <c r="M16" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="N16" s="86"/>
+      <c r="N16" s="89"/>
       <c r="O16" s="14"/>
       <c r="P16" s="14"/>
     </row>
@@ -8684,7 +8684,7 @@
       <c r="M17" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="N17" s="86" t="s">
+      <c r="N17" s="89" t="s">
         <v>258</v>
       </c>
       <c r="O17" s="14"/>
@@ -8730,7 +8730,7 @@
       <c r="M18" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="N18" s="86"/>
+      <c r="N18" s="89"/>
       <c r="O18" s="14"/>
       <c r="P18" s="14"/>
     </row>
@@ -8774,7 +8774,7 @@
       <c r="M19" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="N19" s="86"/>
+      <c r="N19" s="89"/>
       <c r="O19" s="14"/>
       <c r="P19" s="14"/>
     </row>
@@ -8818,7 +8818,7 @@
       <c r="M20" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="N20" s="86"/>
+      <c r="N20" s="89"/>
       <c r="O20" s="14"/>
       <c r="P20" s="14"/>
     </row>
@@ -8862,7 +8862,7 @@
       <c r="M21" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="N21" s="86"/>
+      <c r="N21" s="89"/>
       <c r="O21" s="14"/>
       <c r="P21" s="14"/>
     </row>
@@ -8906,7 +8906,7 @@
       <c r="M22" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="N22" s="86" t="s">
+      <c r="N22" s="89" t="s">
         <v>258</v>
       </c>
       <c r="O22" s="14"/>
@@ -8952,7 +8952,7 @@
       <c r="M23" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="N23" s="86"/>
+      <c r="N23" s="89"/>
       <c r="O23" s="14"/>
       <c r="P23" s="14"/>
     </row>
@@ -8996,7 +8996,7 @@
       <c r="M24" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="N24" s="86"/>
+      <c r="N24" s="89"/>
       <c r="O24" s="14"/>
       <c r="P24" s="14"/>
     </row>
@@ -9040,7 +9040,7 @@
       <c r="M25" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="N25" s="86"/>
+      <c r="N25" s="89"/>
       <c r="O25" s="14"/>
       <c r="P25" s="14"/>
     </row>
@@ -9084,7 +9084,7 @@
       <c r="M26" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="N26" s="86"/>
+      <c r="N26" s="89"/>
       <c r="O26" s="14"/>
       <c r="P26" s="14"/>
     </row>
@@ -9128,7 +9128,7 @@
       <c r="M27" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="N27" s="86"/>
+      <c r="N27" s="89"/>
       <c r="O27" s="14"/>
       <c r="P27" s="14"/>
     </row>
@@ -9172,7 +9172,7 @@
       <c r="M28" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="N28" s="86"/>
+      <c r="N28" s="89"/>
       <c r="O28" s="14"/>
       <c r="P28" s="14"/>
     </row>
@@ -9216,7 +9216,7 @@
       <c r="M29" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="N29" s="86"/>
+      <c r="N29" s="89"/>
       <c r="O29" s="14"/>
       <c r="P29" s="14"/>
     </row>
@@ -9260,7 +9260,7 @@
       <c r="M30" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="N30" s="86"/>
+      <c r="N30" s="89"/>
       <c r="O30" s="14"/>
       <c r="P30" s="14"/>
     </row>
@@ -9304,7 +9304,7 @@
       <c r="M31" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="N31" s="86"/>
+      <c r="N31" s="89"/>
       <c r="O31" s="14"/>
       <c r="P31" s="14"/>
     </row>
@@ -9348,7 +9348,7 @@
       <c r="M32" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="N32" s="86"/>
+      <c r="N32" s="89"/>
       <c r="O32" s="14"/>
       <c r="P32" s="14"/>
     </row>
@@ -9392,7 +9392,7 @@
       <c r="M33" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="N33" s="86"/>
+      <c r="N33" s="89"/>
       <c r="O33" s="14"/>
       <c r="P33" s="14"/>
     </row>
@@ -9436,7 +9436,7 @@
       <c r="M34" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="N34" s="86" t="s">
+      <c r="N34" s="89" t="s">
         <v>258</v>
       </c>
       <c r="O34" s="14"/>
@@ -9482,7 +9482,7 @@
       <c r="M35" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="N35" s="86"/>
+      <c r="N35" s="89"/>
       <c r="O35" s="14"/>
       <c r="P35" s="14"/>
     </row>
@@ -9526,7 +9526,7 @@
       <c r="M36" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="N36" s="86"/>
+      <c r="N36" s="89"/>
       <c r="O36" s="14"/>
       <c r="P36" s="14"/>
     </row>
@@ -9570,7 +9570,7 @@
       <c r="M37" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="N37" s="86"/>
+      <c r="N37" s="89"/>
       <c r="O37" s="14"/>
       <c r="P37" s="14"/>
     </row>
@@ -9614,7 +9614,7 @@
       <c r="M38" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="N38" s="86"/>
+      <c r="N38" s="89"/>
       <c r="O38" s="14"/>
       <c r="P38" s="14"/>
     </row>
@@ -9658,7 +9658,7 @@
       <c r="M39" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="N39" s="86"/>
+      <c r="N39" s="89"/>
       <c r="O39" s="14"/>
       <c r="P39" s="14"/>
     </row>
@@ -9702,7 +9702,7 @@
       <c r="M40" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="N40" s="86" t="s">
+      <c r="N40" s="89" t="s">
         <v>258</v>
       </c>
       <c r="O40" s="14"/>
@@ -9748,7 +9748,7 @@
       <c r="M41" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="N41" s="86"/>
+      <c r="N41" s="89"/>
       <c r="O41" s="14"/>
       <c r="P41" s="14"/>
     </row>
@@ -9792,7 +9792,7 @@
       <c r="M42" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="N42" s="86"/>
+      <c r="N42" s="89"/>
       <c r="O42" s="14"/>
       <c r="P42" s="14"/>
     </row>
@@ -9836,7 +9836,7 @@
       <c r="M43" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="N43" s="86"/>
+      <c r="N43" s="89"/>
       <c r="O43" s="14"/>
       <c r="P43" s="14"/>
     </row>
@@ -9880,7 +9880,7 @@
       <c r="M44" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="N44" s="86"/>
+      <c r="N44" s="89"/>
       <c r="O44" s="14"/>
       <c r="P44" s="14"/>
     </row>
@@ -9924,7 +9924,7 @@
       <c r="M45" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="N45" s="86"/>
+      <c r="N45" s="89"/>
       <c r="O45" s="14"/>
       <c r="P45" s="14"/>
     </row>
@@ -9968,7 +9968,7 @@
       <c r="M46" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="N46" s="86" t="s">
+      <c r="N46" s="89" t="s">
         <v>258</v>
       </c>
       <c r="O46" s="14"/>
@@ -10014,7 +10014,7 @@
       <c r="M47" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="N47" s="86"/>
+      <c r="N47" s="89"/>
       <c r="O47" s="14"/>
       <c r="P47" s="14"/>
     </row>
@@ -10058,7 +10058,7 @@
       <c r="M48" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="N48" s="86"/>
+      <c r="N48" s="89"/>
       <c r="O48" s="14"/>
       <c r="P48" s="14"/>
     </row>
@@ -10102,7 +10102,7 @@
       <c r="M49" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="N49" s="86"/>
+      <c r="N49" s="89"/>
       <c r="O49" s="14"/>
       <c r="P49" s="14"/>
     </row>
@@ -10146,7 +10146,7 @@
       <c r="M50" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="N50" s="86"/>
+      <c r="N50" s="89"/>
       <c r="O50" s="14"/>
       <c r="P50" s="14"/>
     </row>
@@ -10190,7 +10190,7 @@
       <c r="M51" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="N51" s="86"/>
+      <c r="N51" s="89"/>
       <c r="O51" s="14"/>
       <c r="P51" s="14"/>
     </row>
@@ -10234,7 +10234,7 @@
       <c r="M52" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="N52" s="86"/>
+      <c r="N52" s="89"/>
       <c r="O52" s="14"/>
       <c r="P52" s="14"/>
     </row>
@@ -10278,7 +10278,7 @@
       <c r="M53" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="N53" s="86"/>
+      <c r="N53" s="89"/>
       <c r="O53" s="14"/>
       <c r="P53" s="14"/>
     </row>
@@ -10322,7 +10322,7 @@
       <c r="M54" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="N54" s="86" t="s">
+      <c r="N54" s="89" t="s">
         <v>258</v>
       </c>
       <c r="O54" s="14"/>
@@ -10368,7 +10368,7 @@
       <c r="M55" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="N55" s="86"/>
+      <c r="N55" s="89"/>
       <c r="O55" s="14"/>
       <c r="P55" s="14"/>
     </row>
@@ -10412,7 +10412,7 @@
       <c r="M56" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="N56" s="86"/>
+      <c r="N56" s="89"/>
       <c r="O56" s="14"/>
       <c r="P56" s="14"/>
     </row>
@@ -10456,7 +10456,7 @@
       <c r="M57" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="N57" s="86"/>
+      <c r="N57" s="89"/>
       <c r="O57" s="14"/>
       <c r="P57" s="14"/>
     </row>
@@ -10500,7 +10500,7 @@
       <c r="M58" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="N58" s="86"/>
+      <c r="N58" s="89"/>
       <c r="O58" s="14"/>
       <c r="P58" s="14"/>
     </row>
@@ -10544,7 +10544,7 @@
       <c r="M59" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="N59" s="86"/>
+      <c r="N59" s="89"/>
       <c r="O59" s="14"/>
       <c r="P59" s="14"/>
     </row>
@@ -10588,7 +10588,7 @@
       <c r="M60" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="N60" s="86"/>
+      <c r="N60" s="89"/>
       <c r="O60" s="14"/>
       <c r="P60" s="14"/>
     </row>
@@ -10632,7 +10632,7 @@
       <c r="M61" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="N61" s="86" t="s">
+      <c r="N61" s="89" t="s">
         <v>258</v>
       </c>
       <c r="O61" s="14"/>
@@ -10678,7 +10678,7 @@
       <c r="M62" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="N62" s="86"/>
+      <c r="N62" s="89"/>
       <c r="O62" s="14"/>
       <c r="P62" s="14"/>
     </row>
@@ -10722,7 +10722,7 @@
       <c r="M63" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="N63" s="86"/>
+      <c r="N63" s="89"/>
       <c r="O63" s="14"/>
       <c r="P63" s="14"/>
     </row>
@@ -10766,7 +10766,7 @@
       <c r="M64" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="N64" s="86"/>
+      <c r="N64" s="89"/>
       <c r="O64" s="14"/>
       <c r="P64" s="14"/>
     </row>
@@ -10810,7 +10810,7 @@
       <c r="M65" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="N65" s="86"/>
+      <c r="N65" s="89"/>
       <c r="O65" s="14"/>
       <c r="P65" s="14"/>
     </row>
@@ -10854,7 +10854,7 @@
       <c r="M66" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="N66" s="86"/>
+      <c r="N66" s="89"/>
       <c r="O66" s="14"/>
       <c r="P66" s="14"/>
     </row>
@@ -10898,7 +10898,7 @@
       <c r="M67" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="N67" s="86"/>
+      <c r="N67" s="89"/>
       <c r="O67" s="14"/>
       <c r="P67" s="14"/>
     </row>
@@ -10942,7 +10942,7 @@
       <c r="M68" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="N68" s="86"/>
+      <c r="N68" s="89"/>
       <c r="O68" s="14"/>
       <c r="P68" s="14"/>
     </row>
@@ -10986,7 +10986,7 @@
       <c r="M69" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="N69" s="86" t="s">
+      <c r="N69" s="89" t="s">
         <v>258</v>
       </c>
       <c r="O69" s="14"/>
@@ -11032,7 +11032,7 @@
       <c r="M70" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="N70" s="86"/>
+      <c r="N70" s="89"/>
       <c r="O70" s="14"/>
       <c r="P70" s="14"/>
     </row>
@@ -11076,7 +11076,7 @@
       <c r="M71" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="N71" s="86"/>
+      <c r="N71" s="89"/>
       <c r="O71" s="14"/>
       <c r="P71" s="14"/>
     </row>
@@ -11120,7 +11120,7 @@
       <c r="M72" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="N72" s="86"/>
+      <c r="N72" s="89"/>
       <c r="O72" s="14"/>
       <c r="P72" s="14"/>
     </row>
@@ -11164,7 +11164,7 @@
       <c r="M73" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="N73" s="86" t="s">
+      <c r="N73" s="89" t="s">
         <v>258</v>
       </c>
       <c r="O73" s="14"/>
@@ -11210,7 +11210,7 @@
       <c r="M74" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="N74" s="86"/>
+      <c r="N74" s="89"/>
       <c r="O74" s="14"/>
       <c r="P74" s="14"/>
     </row>
@@ -11254,7 +11254,7 @@
       <c r="M75" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="N75" s="86"/>
+      <c r="N75" s="89"/>
       <c r="O75" s="14"/>
       <c r="P75" s="14"/>
     </row>
@@ -11298,7 +11298,7 @@
       <c r="M76" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="N76" s="86"/>
+      <c r="N76" s="89"/>
       <c r="O76" s="14"/>
       <c r="P76" s="14"/>
     </row>
@@ -11342,7 +11342,7 @@
       <c r="M77" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="N77" s="86"/>
+      <c r="N77" s="89"/>
       <c r="O77" s="14"/>
       <c r="P77" s="14"/>
     </row>
@@ -11386,7 +11386,7 @@
       <c r="M78" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="N78" s="86"/>
+      <c r="N78" s="89"/>
       <c r="O78" s="14"/>
       <c r="P78" s="14"/>
     </row>

--- a/迷彩进度.xlsx
+++ b/迷彩进度.xlsx
@@ -3774,8 +3774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:XFD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4747,7 +4747,7 @@
       <c r="L22" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="M22" s="16" t="s">
+      <c r="M22" s="88" t="s">
         <v>66</v>
       </c>
       <c r="N22" s="89"/>
@@ -4790,7 +4790,7 @@
       <c r="L23" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="M23" s="16" t="s">
+      <c r="M23" s="88" t="s">
         <v>96</v>
       </c>
       <c r="N23" s="89"/>
@@ -4878,7 +4878,7 @@
       <c r="L25" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="M25" s="16" t="s">
+      <c r="M25" s="88" t="s">
         <v>107</v>
       </c>
       <c r="N25" s="89"/>
@@ -4921,7 +4921,7 @@
       <c r="L26" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="M26" s="16" t="s">
+      <c r="M26" s="88" t="s">
         <v>110</v>
       </c>
       <c r="N26" s="89"/>
@@ -4964,7 +4964,7 @@
       <c r="L27" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="M27" s="16" t="s">
+      <c r="M27" s="88" t="s">
         <v>114</v>
       </c>
       <c r="N27" s="89"/>
@@ -5093,7 +5093,7 @@
       <c r="L30" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="M30" s="13" t="s">
+      <c r="M30" s="87" t="s">
         <v>125</v>
       </c>
       <c r="N30" s="89" t="s">
@@ -5138,7 +5138,7 @@
       <c r="L31" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="M31" s="13" t="s">
+      <c r="M31" s="87" t="s">
         <v>128</v>
       </c>
       <c r="N31" s="89"/>
@@ -5224,7 +5224,7 @@
       <c r="L33" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="M33" s="16" t="s">
+      <c r="M33" s="88" t="s">
         <v>96</v>
       </c>
       <c r="N33" s="89"/>
@@ -5398,13 +5398,13 @@
       <c r="L37" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="M37" s="16" t="s">
+      <c r="M37" s="88" t="s">
         <v>146</v>
       </c>
       <c r="N37" s="89"/>
       <c r="O37" s="14"/>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" ht="15" customHeight="1">
       <c r="A38" s="20" t="s">
         <v>147</v>
       </c>
@@ -5441,7 +5441,7 @@
       <c r="L38" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="M38" s="18" t="s">
+      <c r="M38" s="86" t="s">
         <v>152</v>
       </c>
       <c r="N38" s="89" t="s">

--- a/迷彩进度.xlsx
+++ b/迷彩进度.xlsx
@@ -3774,8 +3774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:XFD43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4096,7 +4096,7 @@
       <c r="L7" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="M7" s="13" t="s">
+      <c r="M7" s="87" t="s">
         <v>20</v>
       </c>
       <c r="N7" s="89"/>
@@ -5572,7 +5572,7 @@
       <c r="L41" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="M41" s="13" t="s">
+      <c r="M41" s="87" t="s">
         <v>157</v>
       </c>
       <c r="N41" s="89"/>
@@ -5756,17 +5756,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="N30:N33"/>
-    <mergeCell ref="N34:N37"/>
-    <mergeCell ref="N38:N41"/>
-    <mergeCell ref="N42:N43"/>
-    <mergeCell ref="N44:N45"/>
     <mergeCell ref="N24:N29"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="N4:N9"/>
     <mergeCell ref="N10:N12"/>
     <mergeCell ref="N13:N20"/>
     <mergeCell ref="N21:N23"/>
+    <mergeCell ref="N30:N33"/>
+    <mergeCell ref="N34:N37"/>
+    <mergeCell ref="N38:N41"/>
+    <mergeCell ref="N42:N43"/>
+    <mergeCell ref="N44:N45"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7845,17 +7845,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="N30:N33"/>
-    <mergeCell ref="N34:N37"/>
-    <mergeCell ref="N38:N41"/>
-    <mergeCell ref="N42:N43"/>
-    <mergeCell ref="N44:N45"/>
     <mergeCell ref="N24:N29"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="N4:N9"/>
     <mergeCell ref="N10:N12"/>
     <mergeCell ref="N13:N20"/>
     <mergeCell ref="N21:N23"/>
+    <mergeCell ref="N30:N33"/>
+    <mergeCell ref="N34:N37"/>
+    <mergeCell ref="N38:N41"/>
+    <mergeCell ref="N42:N43"/>
+    <mergeCell ref="N44:N45"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/迷彩进度.xlsx
+++ b/迷彩进度.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cod20多人迷彩" sheetId="1" r:id="rId1"/>
@@ -3774,8 +3774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21:N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5312,7 +5312,7 @@
       <c r="L35" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="M35" s="16" t="s">
+      <c r="M35" s="88" t="s">
         <v>141</v>
       </c>
       <c r="N35" s="89"/>
@@ -5404,7 +5404,7 @@
       <c r="N37" s="89"/>
       <c r="O37" s="14"/>
     </row>
-    <row r="38" spans="1:15" ht="15" customHeight="1">
+    <row r="38" spans="1:15" ht="14.25" customHeight="1">
       <c r="A38" s="20" t="s">
         <v>147</v>
       </c>
@@ -5486,7 +5486,7 @@
       <c r="L39" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="M39" s="16" t="s">
+      <c r="M39" s="88" t="s">
         <v>143</v>
       </c>
       <c r="N39" s="89"/>
@@ -5756,17 +5756,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="N30:N33"/>
+    <mergeCell ref="N34:N37"/>
+    <mergeCell ref="N38:N41"/>
+    <mergeCell ref="N42:N43"/>
+    <mergeCell ref="N44:N45"/>
     <mergeCell ref="N24:N29"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="N4:N9"/>
     <mergeCell ref="N10:N12"/>
     <mergeCell ref="N13:N20"/>
     <mergeCell ref="N21:N23"/>
-    <mergeCell ref="N30:N33"/>
-    <mergeCell ref="N34:N37"/>
-    <mergeCell ref="N38:N41"/>
-    <mergeCell ref="N42:N43"/>
-    <mergeCell ref="N44:N45"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5778,8 +5778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7845,17 +7845,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="N30:N33"/>
+    <mergeCell ref="N34:N37"/>
+    <mergeCell ref="N38:N41"/>
+    <mergeCell ref="N42:N43"/>
+    <mergeCell ref="N44:N45"/>
     <mergeCell ref="N24:N29"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="N4:N9"/>
     <mergeCell ref="N10:N12"/>
     <mergeCell ref="N13:N20"/>
     <mergeCell ref="N21:N23"/>
-    <mergeCell ref="N30:N33"/>
-    <mergeCell ref="N34:N37"/>
-    <mergeCell ref="N38:N41"/>
-    <mergeCell ref="N42:N43"/>
-    <mergeCell ref="N44:N45"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
